--- a/BackTest/2019-10-29 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-29 BackTest QTUM.xlsx
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
@@ -12774,7 +12774,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
@@ -12809,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
@@ -12949,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
@@ -13054,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
@@ -15819,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
@@ -15854,7 +15854,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
@@ -15889,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
@@ -15924,7 +15924,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
@@ -22186,14 +22186,20 @@
         <v>2712.05</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
       </c>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>2662</v>
+      </c>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22221,14 +22227,20 @@
         <v>2707.7</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
       </c>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>2667</v>
+      </c>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22256,14 +22268,20 @@
         <v>2702.6</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>2643</v>
+      </c>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22291,14 +22309,20 @@
         <v>2698.55</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>2660</v>
+      </c>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22326,14 +22350,20 @@
         <v>2695.5</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
       </c>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>2678</v>
+      </c>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -22361,14 +22391,20 @@
         <v>2692.6</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
       </c>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>2675</v>
+      </c>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -22396,14 +22432,20 @@
         <v>2689.5</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
       </c>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>2672</v>
+      </c>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -22431,14 +22473,20 @@
         <v>2685.6</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
       </c>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>2672</v>
+      </c>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -22466,14 +22514,20 @@
         <v>2682.1</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
       </c>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>2667</v>
+      </c>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -22501,14 +22555,20 @@
         <v>2678.15</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
       </c>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>2664</v>
+      </c>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -22536,14 +22596,20 @@
         <v>2673.75</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
       </c>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>2662</v>
+      </c>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -22571,14 +22637,20 @@
         <v>2669.95</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
       </c>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>2651</v>
+      </c>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -22606,14 +22678,20 @@
         <v>2666.65</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
       </c>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>2659</v>
+      </c>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -22648,7 +22726,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -22683,7 +22765,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -22718,7 +22804,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -22753,7 +22843,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -22788,7 +22882,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -22823,7 +22921,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -22858,7 +22960,11 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -22893,7 +22999,11 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -22928,7 +23038,11 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -22963,7 +23077,11 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -22998,7 +23116,11 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23033,7 +23155,11 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23068,7 +23194,11 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23103,7 +23233,11 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23138,7 +23272,11 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23173,7 +23311,11 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23208,7 +23350,11 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23243,7 +23389,11 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23278,7 +23428,11 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23313,7 +23467,11 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23348,7 +23506,11 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -23383,7 +23545,11 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -23418,7 +23584,11 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -23453,7 +23623,11 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -23488,7 +23662,11 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -23523,7 +23701,11 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -23558,7 +23740,11 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -23593,7 +23779,11 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -23628,7 +23818,11 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -23663,7 +23857,11 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -23698,7 +23896,11 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -23733,7 +23935,11 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -23768,7 +23974,11 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -23803,7 +24013,11 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -23838,7 +24052,11 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -23873,7 +24091,11 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -23908,7 +24130,11 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -23943,7 +24169,11 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -23978,7 +24208,11 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24013,7 +24247,11 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24048,7 +24286,11 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24083,7 +24325,11 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24118,7 +24364,11 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24153,7 +24403,11 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24188,7 +24442,11 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24223,7 +24481,11 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24258,7 +24520,11 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24293,7 +24559,11 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24328,7 +24598,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -24363,7 +24637,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -24398,7 +24676,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -24433,7 +24715,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -24468,7 +24754,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -24503,7 +24793,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -24538,7 +24832,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -24573,7 +24871,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -24608,7 +24910,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -24643,7 +24949,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -24678,7 +24988,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -24713,7 +25027,11 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -24748,7 +25066,11 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -24783,7 +25105,11 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -24818,7 +25144,11 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -24853,7 +25183,11 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -24888,7 +25222,11 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -24923,7 +25261,11 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -24958,7 +25300,11 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -24993,7 +25339,11 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -25028,7 +25378,11 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -25063,7 +25417,11 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -25098,7 +25456,11 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25133,7 +25495,11 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25168,7 +25534,11 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -25203,7 +25573,11 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -25238,7 +25612,11 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -25273,7 +25651,11 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -25308,7 +25690,11 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -25343,7 +25729,11 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -25371,18 +25761,18 @@
         <v>2661.75</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
       </c>
-      <c r="J714" t="n">
-        <v>2649</v>
-      </c>
-      <c r="K714" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -25410,20 +25800,16 @@
         <v>2661.2</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
       </c>
-      <c r="J715" t="n">
-        <v>2649</v>
-      </c>
-      <c r="K715" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M715" t="n">
@@ -25453,17 +25839,13 @@
         <v>2660.5</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
       </c>
-      <c r="J716" t="n">
-        <v>2646</v>
-      </c>
-      <c r="K716" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25496,17 +25878,13 @@
         <v>2659.65</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
       </c>
-      <c r="J717" t="n">
-        <v>2643</v>
-      </c>
-      <c r="K717" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25539,17 +25917,13 @@
         <v>2658.35</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
       </c>
-      <c r="J718" t="n">
-        <v>2636</v>
-      </c>
-      <c r="K718" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25582,17 +25956,13 @@
         <v>2656.15</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
       </c>
-      <c r="J719" t="n">
-        <v>2620</v>
-      </c>
-      <c r="K719" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25631,9 +26001,7 @@
         <v>0</v>
       </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25672,9 +26040,7 @@
         <v>0</v>
       </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25713,9 +26079,7 @@
         <v>0</v>
       </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25748,17 +26112,13 @@
         <v>2645.35</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
       </c>
-      <c r="J723" t="n">
-        <v>2610</v>
-      </c>
-      <c r="K723" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25797,9 +26157,7 @@
         <v>0</v>
       </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25838,9 +26196,7 @@
         <v>0</v>
       </c>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25879,9 +26235,7 @@
         <v>0</v>
       </c>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25914,17 +26268,13 @@
         <v>2635.9</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
       </c>
-      <c r="J727" t="n">
-        <v>2615</v>
-      </c>
-      <c r="K727" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25957,17 +26307,13 @@
         <v>2633.65</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="n">
         <v>0</v>
       </c>
-      <c r="J728" t="n">
-        <v>2616</v>
-      </c>
-      <c r="K728" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26000,17 +26346,13 @@
         <v>2631</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
       </c>
-      <c r="J729" t="n">
-        <v>2610</v>
-      </c>
-      <c r="K729" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26043,17 +26385,13 @@
         <v>2628.55</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
       </c>
-      <c r="J730" t="n">
-        <v>2614</v>
-      </c>
-      <c r="K730" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26086,17 +26424,13 @@
         <v>2625.9</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
       </c>
-      <c r="J731" t="n">
-        <v>2610</v>
-      </c>
-      <c r="K731" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26129,17 +26463,13 @@
         <v>2623.15</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
       </c>
-      <c r="J732" t="n">
-        <v>2603</v>
-      </c>
-      <c r="K732" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26172,17 +26502,13 @@
         <v>2620.8</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
       </c>
-      <c r="J733" t="n">
-        <v>2609</v>
-      </c>
-      <c r="K733" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26215,17 +26541,13 @@
         <v>2618.85</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
       </c>
-      <c r="J734" t="n">
-        <v>2610</v>
-      </c>
-      <c r="K734" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26258,17 +26580,13 @@
         <v>2617.1</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
       </c>
-      <c r="J735" t="n">
-        <v>2614</v>
-      </c>
-      <c r="K735" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26301,17 +26619,13 @@
         <v>2615.3</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
       </c>
-      <c r="J736" t="n">
-        <v>2610</v>
-      </c>
-      <c r="K736" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26344,17 +26658,13 @@
         <v>2613.6</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
       </c>
-      <c r="J737" t="n">
-        <v>2609</v>
-      </c>
-      <c r="K737" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26387,17 +26697,13 @@
         <v>2612.05</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738" t="n">
         <v>0</v>
       </c>
-      <c r="J738" t="n">
-        <v>2605</v>
-      </c>
-      <c r="K738" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26430,17 +26736,13 @@
         <v>2611.3</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I739" t="n">
         <v>0</v>
       </c>
-      <c r="J739" t="n">
-        <v>2605</v>
-      </c>
-      <c r="K739" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26473,17 +26775,13 @@
         <v>2611.3</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740" t="n">
         <v>0</v>
       </c>
-      <c r="J740" t="n">
-        <v>2608</v>
-      </c>
-      <c r="K740" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26516,17 +26814,13 @@
         <v>2611.45</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I741" t="n">
         <v>0</v>
       </c>
-      <c r="J741" t="n">
-        <v>2609</v>
-      </c>
-      <c r="K741" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26559,17 +26853,13 @@
         <v>2611.1</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I742" t="n">
         <v>0</v>
       </c>
-      <c r="J742" t="n">
-        <v>2609</v>
-      </c>
-      <c r="K742" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26602,17 +26892,13 @@
         <v>2611.1</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I743" t="n">
         <v>0</v>
       </c>
-      <c r="J743" t="n">
-        <v>2610</v>
-      </c>
-      <c r="K743" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26645,17 +26931,13 @@
         <v>2610.55</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I744" t="n">
         <v>0</v>
       </c>
-      <c r="J744" t="n">
-        <v>2608</v>
-      </c>
-      <c r="K744" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26688,17 +26970,13 @@
         <v>2609.6</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
       </c>
-      <c r="J745" t="n">
-        <v>2606</v>
-      </c>
-      <c r="K745" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26731,17 +27009,13 @@
         <v>2609.45</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I746" t="n">
         <v>0</v>
       </c>
-      <c r="J746" t="n">
-        <v>2609</v>
-      </c>
-      <c r="K746" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26774,17 +27048,13 @@
         <v>2609.25</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I747" t="n">
         <v>0</v>
       </c>
-      <c r="J747" t="n">
-        <v>2611</v>
-      </c>
-      <c r="K747" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26817,17 +27087,13 @@
         <v>2609</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I748" t="n">
         <v>0</v>
       </c>
-      <c r="J748" t="n">
-        <v>2611</v>
-      </c>
-      <c r="K748" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26860,17 +27126,13 @@
         <v>2609.5</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I749" t="n">
         <v>0</v>
       </c>
-      <c r="J749" t="n">
-        <v>2620</v>
-      </c>
-      <c r="K749" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26903,17 +27165,13 @@
         <v>2609.8</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="n">
         <v>0</v>
       </c>
-      <c r="J750" t="n">
-        <v>2620</v>
-      </c>
-      <c r="K750" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26946,17 +27204,13 @@
         <v>2610.35</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I751" t="n">
         <v>0</v>
       </c>
-      <c r="J751" t="n">
-        <v>2621</v>
-      </c>
-      <c r="K751" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26989,17 +27243,13 @@
         <v>2611.3</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I752" t="n">
         <v>0</v>
       </c>
-      <c r="J752" t="n">
-        <v>2622</v>
-      </c>
-      <c r="K752" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27032,17 +27282,13 @@
         <v>2612.15</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I753" t="n">
         <v>0</v>
       </c>
-      <c r="J753" t="n">
-        <v>2626</v>
-      </c>
-      <c r="K753" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27075,17 +27321,13 @@
         <v>2613.3</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I754" t="n">
         <v>0</v>
       </c>
-      <c r="J754" t="n">
-        <v>2633</v>
-      </c>
-      <c r="K754" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27118,17 +27360,13 @@
         <v>2613.7</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I755" t="n">
         <v>0</v>
       </c>
-      <c r="J755" t="n">
-        <v>2622</v>
-      </c>
-      <c r="K755" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27161,17 +27399,13 @@
         <v>2615.2</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="n">
         <v>0</v>
       </c>
-      <c r="J756" t="n">
-        <v>2640</v>
-      </c>
-      <c r="K756" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27204,17 +27438,13 @@
         <v>2616.65</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I757" t="n">
         <v>0</v>
       </c>
-      <c r="J757" t="n">
-        <v>2638</v>
-      </c>
-      <c r="K757" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27247,17 +27477,13 @@
         <v>2617.75</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I758" t="n">
         <v>0</v>
       </c>
-      <c r="J758" t="n">
-        <v>2627</v>
-      </c>
-      <c r="K758" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27290,17 +27516,13 @@
         <v>2618.95</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I759" t="n">
         <v>0</v>
       </c>
-      <c r="J759" t="n">
-        <v>2629</v>
-      </c>
-      <c r="K759" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27333,17 +27555,13 @@
         <v>2620.35</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I760" t="n">
         <v>0</v>
       </c>
-      <c r="J760" t="n">
-        <v>2636</v>
-      </c>
-      <c r="K760" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27376,17 +27594,13 @@
         <v>2621.7</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I761" t="n">
         <v>0</v>
       </c>
-      <c r="J761" t="n">
-        <v>2636</v>
-      </c>
-      <c r="K761" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27419,17 +27633,13 @@
         <v>2622.95</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I762" t="n">
         <v>0</v>
       </c>
-      <c r="J762" t="n">
-        <v>2634</v>
-      </c>
-      <c r="K762" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27462,17 +27672,13 @@
         <v>2624.45</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I763" t="n">
         <v>0</v>
       </c>
-      <c r="J763" t="n">
-        <v>2640</v>
-      </c>
-      <c r="K763" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27505,17 +27711,13 @@
         <v>2626.25</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I764" t="n">
         <v>0</v>
       </c>
-      <c r="J764" t="n">
-        <v>2644</v>
-      </c>
-      <c r="K764" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27548,17 +27750,13 @@
         <v>2628.5</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I765" t="n">
         <v>0</v>
       </c>
-      <c r="J765" t="n">
-        <v>2651</v>
-      </c>
-      <c r="K765" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27591,17 +27789,13 @@
         <v>2630.7</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I766" t="n">
         <v>0</v>
       </c>
-      <c r="J766" t="n">
-        <v>2653</v>
-      </c>
-      <c r="K766" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27634,17 +27828,13 @@
         <v>2632.9</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I767" t="n">
         <v>0</v>
       </c>
-      <c r="J767" t="n">
-        <v>2655</v>
-      </c>
-      <c r="K767" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27677,17 +27867,13 @@
         <v>2635.45</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I768" t="n">
         <v>0</v>
       </c>
-      <c r="J768" t="n">
-        <v>2662</v>
-      </c>
-      <c r="K768" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27720,17 +27906,13 @@
         <v>2637.2</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I769" t="n">
         <v>0</v>
       </c>
-      <c r="J769" t="n">
-        <v>2655</v>
-      </c>
-      <c r="K769" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27763,17 +27945,13 @@
         <v>2638.4</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I770" t="n">
         <v>0</v>
       </c>
-      <c r="J770" t="n">
-        <v>2644</v>
-      </c>
-      <c r="K770" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27806,17 +27984,13 @@
         <v>2639.8</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I771" t="n">
         <v>0</v>
       </c>
-      <c r="J771" t="n">
-        <v>2649</v>
-      </c>
-      <c r="K771" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27849,17 +28023,13 @@
         <v>2641</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I772" t="n">
         <v>0</v>
       </c>
-      <c r="J772" t="n">
-        <v>2646</v>
-      </c>
-      <c r="K772" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27892,17 +28062,13 @@
         <v>2642.4</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I773" t="n">
         <v>0</v>
       </c>
-      <c r="J773" t="n">
-        <v>2654</v>
-      </c>
-      <c r="K773" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27935,17 +28101,13 @@
         <v>2643.35</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I774" t="n">
         <v>0</v>
       </c>
-      <c r="J774" t="n">
-        <v>2652</v>
-      </c>
-      <c r="K774" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27978,17 +28140,13 @@
         <v>2645.65</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I775" t="n">
         <v>0</v>
       </c>
-      <c r="J775" t="n">
-        <v>2668</v>
-      </c>
-      <c r="K775" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28021,17 +28179,13 @@
         <v>2647.2</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I776" t="n">
         <v>0</v>
       </c>
-      <c r="J776" t="n">
-        <v>2671</v>
-      </c>
-      <c r="K776" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28064,17 +28218,13 @@
         <v>2648.7</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I777" t="n">
         <v>0</v>
       </c>
-      <c r="J777" t="n">
-        <v>2668</v>
-      </c>
-      <c r="K777" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28107,17 +28257,13 @@
         <v>2650.75</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I778" t="n">
         <v>0</v>
       </c>
-      <c r="J778" t="n">
-        <v>2668</v>
-      </c>
-      <c r="K778" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28150,17 +28296,13 @@
         <v>2652.9</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I779" t="n">
         <v>0</v>
       </c>
-      <c r="J779" t="n">
-        <v>2672</v>
-      </c>
-      <c r="K779" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28193,17 +28335,13 @@
         <v>2654.2</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I780" t="n">
         <v>0</v>
       </c>
-      <c r="J780" t="n">
-        <v>2662</v>
-      </c>
-      <c r="K780" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28236,17 +28374,13 @@
         <v>2655.6</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I781" t="n">
         <v>0</v>
       </c>
-      <c r="J781" t="n">
-        <v>2664</v>
-      </c>
-      <c r="K781" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28279,17 +28413,13 @@
         <v>2657</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I782" t="n">
         <v>0</v>
       </c>
-      <c r="J782" t="n">
-        <v>2662</v>
-      </c>
-      <c r="K782" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28322,17 +28452,13 @@
         <v>2658.6</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I783" t="n">
         <v>0</v>
       </c>
-      <c r="J783" t="n">
-        <v>2672</v>
-      </c>
-      <c r="K783" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28365,17 +28491,13 @@
         <v>2660.05</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I784" t="n">
         <v>0</v>
       </c>
-      <c r="J784" t="n">
-        <v>2673</v>
-      </c>
-      <c r="K784" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28408,17 +28530,13 @@
         <v>2661.5</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I785" t="n">
         <v>0</v>
       </c>
-      <c r="J785" t="n">
-        <v>2680</v>
-      </c>
-      <c r="K785" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28451,17 +28569,13 @@
         <v>2662.5</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I786" t="n">
         <v>0</v>
       </c>
-      <c r="J786" t="n">
-        <v>2673</v>
-      </c>
-      <c r="K786" t="n">
-        <v>2649</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28500,9 +28614,7 @@
         <v>0</v>
       </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28541,9 +28653,7 @@
         <v>0</v>
       </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28582,9 +28692,7 @@
         <v>0</v>
       </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28623,9 +28731,7 @@
         <v>0</v>
       </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28664,9 +28770,7 @@
         <v>0</v>
       </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28705,9 +28809,7 @@
         <v>0</v>
       </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28746,9 +28848,7 @@
         <v>0</v>
       </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28787,9 +28887,7 @@
         <v>0</v>
       </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28825,20 +28923,16 @@
         <v>0</v>
       </c>
       <c r="I795" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="n">
-        <v>2649</v>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M795" t="n">
-        <v>1</v>
-      </c>
+      <c r="M795" t="inlineStr"/>
     </row>
     <row r="796">
       <c r="A796" s="1" t="n">
@@ -28866,17 +28960,11 @@
         <v>0</v>
       </c>
       <c r="I796" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
+      <c r="L796" t="inlineStr"/>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -28910,14 +28998,8 @@
         <v>0</v>
       </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
+      <c r="L797" t="inlineStr"/>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -28948,17 +29030,11 @@
         <v>0</v>
       </c>
       <c r="I798" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
+      <c r="L798" t="inlineStr"/>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -28989,17 +29065,11 @@
         <v>0</v>
       </c>
       <c r="I799" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
+      <c r="L799" t="inlineStr"/>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -29030,17 +29100,11 @@
         <v>0</v>
       </c>
       <c r="I800" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
+      <c r="L800" t="inlineStr"/>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -29068,22 +29132,14 @@
         <v>2665.45</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I801" t="n">
-        <v>0</v>
-      </c>
-      <c r="J801" t="n">
-        <v>2652</v>
-      </c>
-      <c r="K801" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
+      <c r="L801" t="inlineStr"/>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -29111,22 +29167,14 @@
         <v>2664.95</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I802" t="n">
-        <v>0</v>
-      </c>
-      <c r="J802" t="n">
-        <v>2652</v>
-      </c>
-      <c r="K802" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
+      <c r="L802" t="inlineStr"/>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -29154,22 +29202,14 @@
         <v>2663.85</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I803" t="n">
         <v>0</v>
       </c>
-      <c r="J803" t="n">
-        <v>2650</v>
-      </c>
-      <c r="K803" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
+      <c r="L803" t="inlineStr"/>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -29197,22 +29237,14 @@
         <v>2662.7</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I804" t="n">
         <v>0</v>
       </c>
-      <c r="J804" t="n">
-        <v>2650</v>
-      </c>
-      <c r="K804" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
+      <c r="L804" t="inlineStr"/>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -29240,22 +29272,14 @@
         <v>2660.85</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I805" t="n">
         <v>0</v>
       </c>
-      <c r="J805" t="n">
-        <v>2643</v>
-      </c>
-      <c r="K805" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
+      <c r="L805" t="inlineStr"/>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -29283,22 +29307,14 @@
         <v>2659.3</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I806" t="n">
         <v>0</v>
       </c>
-      <c r="J806" t="n">
-        <v>2642</v>
-      </c>
-      <c r="K806" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
+      <c r="L806" t="inlineStr"/>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -29326,22 +29342,14 @@
         <v>2657.1</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I807" t="n">
         <v>0</v>
       </c>
-      <c r="J807" t="n">
-        <v>2636</v>
-      </c>
-      <c r="K807" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
+      <c r="L807" t="inlineStr"/>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -29369,22 +29377,14 @@
         <v>2654.3</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I808" t="n">
         <v>0</v>
       </c>
-      <c r="J808" t="n">
-        <v>2629</v>
-      </c>
-      <c r="K808" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
+      <c r="L808" t="inlineStr"/>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -29412,22 +29412,14 @@
         <v>2652.3</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I809" t="n">
         <v>0</v>
       </c>
-      <c r="J809" t="n">
-        <v>2643</v>
-      </c>
-      <c r="K809" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
+      <c r="L809" t="inlineStr"/>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -29455,22 +29447,14 @@
         <v>2650.3</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I810" t="n">
         <v>0</v>
       </c>
-      <c r="J810" t="n">
-        <v>2638</v>
-      </c>
-      <c r="K810" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
+      <c r="L810" t="inlineStr"/>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -29498,22 +29482,14 @@
         <v>2649.3</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I811" t="n">
         <v>0</v>
       </c>
-      <c r="J811" t="n">
-        <v>2645</v>
-      </c>
-      <c r="K811" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
+      <c r="L811" t="inlineStr"/>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -29541,22 +29517,14 @@
         <v>2648.45</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I812" t="n">
         <v>0</v>
       </c>
-      <c r="J812" t="n">
-        <v>2647</v>
-      </c>
-      <c r="K812" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
+      <c r="L812" t="inlineStr"/>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -29584,22 +29552,14 @@
         <v>2647.85</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I813" t="n">
         <v>0</v>
       </c>
-      <c r="J813" t="n">
-        <v>2649</v>
-      </c>
-      <c r="K813" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
+      <c r="L813" t="inlineStr"/>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -29627,22 +29587,14 @@
         <v>2646.95</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I814" t="n">
         <v>0</v>
       </c>
-      <c r="J814" t="n">
-        <v>2637</v>
-      </c>
-      <c r="K814" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
+      <c r="L814" t="inlineStr"/>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -29670,22 +29622,14 @@
         <v>2646.25</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I815" t="n">
         <v>0</v>
       </c>
-      <c r="J815" t="n">
-        <v>2638</v>
-      </c>
-      <c r="K815" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
+      <c r="L815" t="inlineStr"/>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -29713,22 +29657,14 @@
         <v>2645.2</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I816" t="n">
         <v>0</v>
       </c>
-      <c r="J816" t="n">
-        <v>2637</v>
-      </c>
-      <c r="K816" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
+      <c r="L816" t="inlineStr"/>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -29756,22 +29692,14 @@
         <v>2644.1</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I817" t="n">
         <v>0</v>
       </c>
-      <c r="J817" t="n">
-        <v>2637</v>
-      </c>
-      <c r="K817" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
+      <c r="L817" t="inlineStr"/>
       <c r="M817" t="n">
         <v>1</v>
       </c>
@@ -29799,22 +29727,14 @@
         <v>2643.25</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I818" t="n">
         <v>0</v>
       </c>
-      <c r="J818" t="n">
-        <v>2636</v>
-      </c>
-      <c r="K818" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
+      <c r="L818" t="inlineStr"/>
       <c r="M818" t="n">
         <v>1</v>
       </c>
@@ -29842,22 +29762,14 @@
         <v>2642.1</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I819" t="n">
         <v>0</v>
       </c>
-      <c r="J819" t="n">
-        <v>2630</v>
-      </c>
-      <c r="K819" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
+      <c r="L819" t="inlineStr"/>
       <c r="M819" t="n">
         <v>1</v>
       </c>
@@ -29885,22 +29797,14 @@
         <v>2641.05</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I820" t="n">
         <v>0</v>
       </c>
-      <c r="J820" t="n">
-        <v>2630</v>
-      </c>
-      <c r="K820" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
+      <c r="L820" t="inlineStr"/>
       <c r="M820" t="n">
         <v>1</v>
       </c>
@@ -29928,22 +29832,14 @@
         <v>2640.25</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I821" t="n">
         <v>0</v>
       </c>
-      <c r="J821" t="n">
-        <v>2636</v>
-      </c>
-      <c r="K821" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
+      <c r="L821" t="inlineStr"/>
       <c r="M821" t="n">
         <v>1</v>
       </c>
@@ -29971,22 +29867,14 @@
         <v>2639.7</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I822" t="n">
         <v>0</v>
       </c>
-      <c r="J822" t="n">
-        <v>2641</v>
-      </c>
-      <c r="K822" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
+      <c r="L822" t="inlineStr"/>
       <c r="M822" t="n">
         <v>1</v>
       </c>
@@ -30014,22 +29902,14 @@
         <v>2639.6</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I823" t="n">
         <v>0</v>
       </c>
-      <c r="J823" t="n">
-        <v>2648</v>
-      </c>
-      <c r="K823" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
+      <c r="L823" t="inlineStr"/>
       <c r="M823" t="n">
         <v>1</v>
       </c>
@@ -30057,22 +29937,14 @@
         <v>2638.95</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I824" t="n">
         <v>0</v>
       </c>
-      <c r="J824" t="n">
-        <v>2637</v>
-      </c>
-      <c r="K824" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
+      <c r="L824" t="inlineStr"/>
       <c r="M824" t="n">
         <v>1</v>
       </c>
@@ -30100,22 +29972,14 @@
         <v>2639.05</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I825" t="n">
         <v>0</v>
       </c>
-      <c r="J825" t="n">
-        <v>2645</v>
-      </c>
-      <c r="K825" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
+      <c r="L825" t="inlineStr"/>
       <c r="M825" t="n">
         <v>1</v>
       </c>
@@ -30143,22 +30007,14 @@
         <v>2638.85</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I826" t="n">
         <v>0</v>
       </c>
-      <c r="J826" t="n">
-        <v>2638</v>
-      </c>
-      <c r="K826" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
+      <c r="L826" t="inlineStr"/>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -30186,22 +30042,14 @@
         <v>2638.9</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I827" t="n">
         <v>0</v>
       </c>
-      <c r="J827" t="n">
-        <v>2637</v>
-      </c>
-      <c r="K827" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
+      <c r="L827" t="inlineStr"/>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -30229,22 +30077,14 @@
         <v>2639.35</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I828" t="n">
         <v>0</v>
       </c>
-      <c r="J828" t="n">
-        <v>2638</v>
-      </c>
-      <c r="K828" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
+      <c r="L828" t="inlineStr"/>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -30272,22 +30112,14 @@
         <v>2638.85</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I829" t="n">
         <v>0</v>
       </c>
-      <c r="J829" t="n">
-        <v>2633</v>
-      </c>
-      <c r="K829" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="inlineStr"/>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -30315,22 +30147,14 @@
         <v>2638.9</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I830" t="n">
         <v>0</v>
       </c>
-      <c r="J830" t="n">
-        <v>2639</v>
-      </c>
-      <c r="K830" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="inlineStr"/>
       <c r="M830" t="n">
         <v>1</v>
       </c>
@@ -30358,22 +30182,14 @@
         <v>2639.4</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I831" t="n">
         <v>0</v>
       </c>
-      <c r="J831" t="n">
-        <v>2655</v>
-      </c>
-      <c r="K831" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
+      <c r="L831" t="inlineStr"/>
       <c r="M831" t="n">
         <v>1</v>
       </c>
@@ -30401,22 +30217,14 @@
         <v>2639.8</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="n">
         <v>0</v>
       </c>
-      <c r="J832" t="n">
-        <v>2655</v>
-      </c>
-      <c r="K832" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="inlineStr"/>
       <c r="M832" t="n">
         <v>1</v>
       </c>
@@ -30444,22 +30252,14 @@
         <v>2639.75</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I833" t="n">
         <v>0</v>
       </c>
-      <c r="J833" t="n">
-        <v>2648</v>
-      </c>
-      <c r="K833" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
+      <c r="L833" t="inlineStr"/>
       <c r="M833" t="n">
         <v>1</v>
       </c>
@@ -30487,22 +30287,14 @@
         <v>2641.25</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I834" t="n">
         <v>0</v>
       </c>
-      <c r="J834" t="n">
-        <v>2667</v>
-      </c>
-      <c r="K834" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
+      <c r="L834" t="inlineStr"/>
       <c r="M834" t="n">
         <v>1</v>
       </c>
@@ -30530,22 +30322,14 @@
         <v>2642.8</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I835" t="n">
         <v>0</v>
       </c>
-      <c r="J835" t="n">
-        <v>2669</v>
-      </c>
-      <c r="K835" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="inlineStr"/>
       <c r="M835" t="n">
         <v>1</v>
       </c>
@@ -30573,22 +30357,14 @@
         <v>2644.55</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I836" t="n">
         <v>0</v>
       </c>
-      <c r="J836" t="n">
-        <v>2672</v>
-      </c>
-      <c r="K836" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="inlineStr"/>
       <c r="M836" t="n">
         <v>1</v>
       </c>
@@ -30616,22 +30392,14 @@
         <v>2646</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I837" t="n">
         <v>0</v>
       </c>
-      <c r="J837" t="n">
-        <v>2666</v>
-      </c>
-      <c r="K837" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="inlineStr"/>
       <c r="M837" t="n">
         <v>1</v>
       </c>
@@ -30659,22 +30427,14 @@
         <v>2648.05</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I838" t="n">
         <v>0</v>
       </c>
-      <c r="J838" t="n">
-        <v>2677</v>
-      </c>
-      <c r="K838" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
+      <c r="L838" t="inlineStr"/>
       <c r="M838" t="n">
         <v>1</v>
       </c>
@@ -30702,22 +30462,14 @@
         <v>2650</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I839" t="n">
         <v>0</v>
       </c>
-      <c r="J839" t="n">
-        <v>2669</v>
-      </c>
-      <c r="K839" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="inlineStr"/>
       <c r="M839" t="n">
         <v>1</v>
       </c>
@@ -30745,22 +30497,14 @@
         <v>2652.25</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I840" t="n">
         <v>0</v>
       </c>
-      <c r="J840" t="n">
-        <v>2675</v>
-      </c>
-      <c r="K840" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="inlineStr"/>
       <c r="M840" t="n">
         <v>1</v>
       </c>
@@ -30788,22 +30532,14 @@
         <v>2654.3</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I841" t="n">
         <v>0</v>
       </c>
-      <c r="J841" t="n">
-        <v>2677</v>
-      </c>
-      <c r="K841" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
+      <c r="L841" t="inlineStr"/>
       <c r="M841" t="n">
         <v>1</v>
       </c>
@@ -30831,22 +30567,14 @@
         <v>2656.3</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I842" t="n">
         <v>0</v>
       </c>
-      <c r="J842" t="n">
-        <v>2681</v>
-      </c>
-      <c r="K842" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
+      <c r="L842" t="inlineStr"/>
       <c r="M842" t="n">
         <v>1</v>
       </c>
@@ -30880,14 +30608,8 @@
         <v>0</v>
       </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
+      <c r="L843" t="inlineStr"/>
       <c r="M843" t="n">
         <v>1</v>
       </c>
@@ -30921,14 +30643,8 @@
         <v>0</v>
       </c>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
+      <c r="L844" t="inlineStr"/>
       <c r="M844" t="n">
         <v>1</v>
       </c>
@@ -30962,14 +30678,8 @@
         <v>0</v>
       </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="inlineStr"/>
       <c r="M845" t="n">
         <v>1</v>
       </c>
@@ -31003,14 +30713,8 @@
         <v>0</v>
       </c>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
+      <c r="L846" t="inlineStr"/>
       <c r="M846" t="n">
         <v>1</v>
       </c>
@@ -31044,14 +30748,8 @@
         <v>0</v>
       </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
+      <c r="L847" t="inlineStr"/>
       <c r="M847" t="n">
         <v>1</v>
       </c>
@@ -31085,14 +30783,8 @@
         <v>0</v>
       </c>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
+      <c r="L848" t="inlineStr"/>
       <c r="M848" t="n">
         <v>1</v>
       </c>
@@ -31126,14 +30818,8 @@
         <v>0</v>
       </c>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
+      <c r="L849" t="inlineStr"/>
       <c r="M849" t="n">
         <v>1</v>
       </c>
@@ -31167,14 +30853,8 @@
         <v>0</v>
       </c>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
+      <c r="L850" t="inlineStr"/>
       <c r="M850" t="n">
         <v>1</v>
       </c>
@@ -31208,14 +30888,8 @@
         <v>0</v>
       </c>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
+      <c r="L851" t="inlineStr"/>
       <c r="M851" t="n">
         <v>1</v>
       </c>
@@ -31249,14 +30923,8 @@
         <v>0</v>
       </c>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
+      <c r="L852" t="inlineStr"/>
       <c r="M852" t="n">
         <v>1</v>
       </c>
@@ -31290,14 +30958,8 @@
         <v>0</v>
       </c>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
+      <c r="L853" t="inlineStr"/>
       <c r="M853" t="n">
         <v>1</v>
       </c>
@@ -31331,14 +30993,8 @@
         <v>0</v>
       </c>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="inlineStr"/>
       <c r="M854" t="n">
         <v>1</v>
       </c>
@@ -31372,14 +31028,8 @@
         <v>0</v>
       </c>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
+      <c r="L855" t="inlineStr"/>
       <c r="M855" t="n">
         <v>1</v>
       </c>
@@ -31413,14 +31063,8 @@
         <v>0</v>
       </c>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
+      <c r="L856" t="inlineStr"/>
       <c r="M856" t="n">
         <v>1</v>
       </c>
@@ -31454,14 +31098,8 @@
         <v>0</v>
       </c>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
+      <c r="L857" t="inlineStr"/>
       <c r="M857" t="n">
         <v>1</v>
       </c>
@@ -31495,14 +31133,8 @@
         <v>0</v>
       </c>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
+      <c r="L858" t="inlineStr"/>
       <c r="M858" t="n">
         <v>1</v>
       </c>
@@ -31536,14 +31168,8 @@
         <v>0</v>
       </c>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
+      <c r="L859" t="inlineStr"/>
       <c r="M859" t="n">
         <v>1</v>
       </c>
@@ -31577,14 +31203,8 @@
         <v>0</v>
       </c>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
+      <c r="L860" t="inlineStr"/>
       <c r="M860" t="n">
         <v>1</v>
       </c>
@@ -31618,14 +31238,8 @@
         <v>0</v>
       </c>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
+      <c r="L861" t="inlineStr"/>
       <c r="M861" t="n">
         <v>1</v>
       </c>
@@ -31659,14 +31273,8 @@
         <v>0</v>
       </c>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
+      <c r="L862" t="inlineStr"/>
       <c r="M862" t="n">
         <v>1</v>
       </c>
@@ -31700,14 +31308,8 @@
         <v>0</v>
       </c>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
+      <c r="L863" t="inlineStr"/>
       <c r="M863" t="n">
         <v>1</v>
       </c>
@@ -31741,14 +31343,8 @@
         <v>0</v>
       </c>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
+      <c r="L864" t="inlineStr"/>
       <c r="M864" t="n">
         <v>1</v>
       </c>
@@ -31782,14 +31378,8 @@
         <v>0</v>
       </c>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
+      <c r="L865" t="inlineStr"/>
       <c r="M865" t="n">
         <v>1</v>
       </c>
@@ -31823,14 +31413,8 @@
         <v>0</v>
       </c>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
+      <c r="L866" t="inlineStr"/>
       <c r="M866" t="n">
         <v>1</v>
       </c>
@@ -31864,14 +31448,8 @@
         <v>0</v>
       </c>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
+      <c r="L867" t="inlineStr"/>
       <c r="M867" t="n">
         <v>1</v>
       </c>
@@ -31905,14 +31483,8 @@
         <v>0</v>
       </c>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
+      <c r="L868" t="inlineStr"/>
       <c r="M868" t="n">
         <v>1</v>
       </c>
@@ -31946,14 +31518,8 @@
         <v>0</v>
       </c>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
+      <c r="L869" t="inlineStr"/>
       <c r="M869" t="n">
         <v>1</v>
       </c>
@@ -31987,14 +31553,8 @@
         <v>0</v>
       </c>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
+      <c r="L870" t="inlineStr"/>
       <c r="M870" t="n">
         <v>1</v>
       </c>
@@ -32028,14 +31588,8 @@
         <v>0</v>
       </c>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
+      <c r="L871" t="inlineStr"/>
       <c r="M871" t="n">
         <v>1</v>
       </c>
@@ -32069,14 +31623,8 @@
         <v>0</v>
       </c>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
+      <c r="L872" t="inlineStr"/>
       <c r="M872" t="n">
         <v>1</v>
       </c>
@@ -32110,14 +31658,8 @@
         <v>0</v>
       </c>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
+      <c r="L873" t="inlineStr"/>
       <c r="M873" t="n">
         <v>1</v>
       </c>
@@ -32151,14 +31693,8 @@
         <v>0</v>
       </c>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
+      <c r="L874" t="inlineStr"/>
       <c r="M874" t="n">
         <v>1</v>
       </c>
@@ -32192,14 +31728,8 @@
         <v>0</v>
       </c>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
+      <c r="L875" t="inlineStr"/>
       <c r="M875" t="n">
         <v>1</v>
       </c>
@@ -32233,14 +31763,8 @@
         <v>0</v>
       </c>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
+      <c r="L876" t="inlineStr"/>
       <c r="M876" t="n">
         <v>1</v>
       </c>
@@ -32274,14 +31798,8 @@
         <v>0</v>
       </c>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
+      <c r="L877" t="inlineStr"/>
       <c r="M877" t="n">
         <v>1</v>
       </c>
@@ -32315,14 +31833,8 @@
         <v>0</v>
       </c>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
+      <c r="L878" t="inlineStr"/>
       <c r="M878" t="n">
         <v>1</v>
       </c>
@@ -32356,14 +31868,8 @@
         <v>0</v>
       </c>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
+      <c r="L879" t="inlineStr"/>
       <c r="M879" t="n">
         <v>1</v>
       </c>
@@ -32397,14 +31903,8 @@
         <v>0</v>
       </c>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
+      <c r="L880" t="inlineStr"/>
       <c r="M880" t="n">
         <v>1</v>
       </c>
@@ -32438,14 +31938,8 @@
         <v>0</v>
       </c>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
+      <c r="L881" t="inlineStr"/>
       <c r="M881" t="n">
         <v>1</v>
       </c>
@@ -32479,14 +31973,8 @@
         <v>0</v>
       </c>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
+      <c r="L882" t="inlineStr"/>
       <c r="M882" t="n">
         <v>1</v>
       </c>
@@ -32520,14 +32008,8 @@
         <v>0</v>
       </c>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
+      <c r="L883" t="inlineStr"/>
       <c r="M883" t="n">
         <v>1</v>
       </c>
@@ -32561,14 +32043,8 @@
         <v>0</v>
       </c>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
+      <c r="L884" t="inlineStr"/>
       <c r="M884" t="n">
         <v>1</v>
       </c>
@@ -32602,14 +32078,8 @@
         <v>0</v>
       </c>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
+      <c r="L885" t="inlineStr"/>
       <c r="M885" t="n">
         <v>1</v>
       </c>
@@ -32643,14 +32113,8 @@
         <v>0</v>
       </c>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
+      <c r="L886" t="inlineStr"/>
       <c r="M886" t="n">
         <v>1</v>
       </c>
@@ -32684,14 +32148,8 @@
         <v>0</v>
       </c>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
+      <c r="L887" t="inlineStr"/>
       <c r="M887" t="n">
         <v>1</v>
       </c>
@@ -32725,14 +32183,8 @@
         <v>0</v>
       </c>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
+      <c r="L888" t="inlineStr"/>
       <c r="M888" t="n">
         <v>1</v>
       </c>
@@ -32766,14 +32218,8 @@
         <v>0</v>
       </c>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
+      <c r="L889" t="inlineStr"/>
       <c r="M889" t="n">
         <v>1</v>
       </c>
@@ -32807,14 +32253,8 @@
         <v>0</v>
       </c>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
+      <c r="L890" t="inlineStr"/>
       <c r="M890" t="n">
         <v>1</v>
       </c>
@@ -32848,14 +32288,8 @@
         <v>0</v>
       </c>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
+      <c r="L891" t="inlineStr"/>
       <c r="M891" t="n">
         <v>1</v>
       </c>
@@ -32889,14 +32323,8 @@
         <v>0</v>
       </c>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
+      <c r="L892" t="inlineStr"/>
       <c r="M892" t="n">
         <v>1</v>
       </c>
@@ -32930,14 +32358,8 @@
         <v>0</v>
       </c>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
+      <c r="L893" t="inlineStr"/>
       <c r="M893" t="n">
         <v>1</v>
       </c>
@@ -32971,14 +32393,8 @@
         <v>0</v>
       </c>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
+      <c r="L894" t="inlineStr"/>
       <c r="M894" t="n">
         <v>1</v>
       </c>
@@ -33012,14 +32428,8 @@
         <v>0</v>
       </c>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
+      <c r="L895" t="inlineStr"/>
       <c r="M895" t="n">
         <v>1</v>
       </c>
@@ -33053,14 +32463,8 @@
         <v>0</v>
       </c>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
+      <c r="L896" t="inlineStr"/>
       <c r="M896" t="n">
         <v>1</v>
       </c>
@@ -33094,14 +32498,8 @@
         <v>0</v>
       </c>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
+      <c r="L897" t="inlineStr"/>
       <c r="M897" t="n">
         <v>1</v>
       </c>
@@ -33135,14 +32533,8 @@
         <v>0</v>
       </c>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
+      <c r="L898" t="inlineStr"/>
       <c r="M898" t="n">
         <v>1</v>
       </c>
@@ -33176,14 +32568,8 @@
         <v>0</v>
       </c>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
+      <c r="L899" t="inlineStr"/>
       <c r="M899" t="n">
         <v>1</v>
       </c>
@@ -33217,14 +32603,8 @@
         <v>0</v>
       </c>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
+      <c r="L900" t="inlineStr"/>
       <c r="M900" t="n">
         <v>1</v>
       </c>
@@ -33258,14 +32638,8 @@
         <v>0</v>
       </c>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
+      <c r="L901" t="inlineStr"/>
       <c r="M901" t="n">
         <v>1</v>
       </c>
@@ -33299,14 +32673,8 @@
         <v>0</v>
       </c>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
+      <c r="L902" t="inlineStr"/>
       <c r="M902" t="n">
         <v>1</v>
       </c>
@@ -33340,14 +32708,8 @@
         <v>0</v>
       </c>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
+      <c r="L903" t="inlineStr"/>
       <c r="M903" t="n">
         <v>1</v>
       </c>
@@ -33381,14 +32743,8 @@
         <v>0</v>
       </c>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
+      <c r="L904" t="inlineStr"/>
       <c r="M904" t="n">
         <v>1</v>
       </c>
@@ -33422,14 +32778,8 @@
         <v>0</v>
       </c>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
+      <c r="L905" t="inlineStr"/>
       <c r="M905" t="n">
         <v>1</v>
       </c>
@@ -33463,14 +32813,8 @@
         <v>0</v>
       </c>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
+      <c r="L906" t="inlineStr"/>
       <c r="M906" t="n">
         <v>1</v>
       </c>
@@ -33504,14 +32848,8 @@
         <v>0</v>
       </c>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
+      <c r="L907" t="inlineStr"/>
       <c r="M907" t="n">
         <v>1</v>
       </c>
@@ -33545,14 +32883,8 @@
         <v>0</v>
       </c>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
+      <c r="L908" t="inlineStr"/>
       <c r="M908" t="n">
         <v>1</v>
       </c>
@@ -33586,14 +32918,8 @@
         <v>0</v>
       </c>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
+      <c r="L909" t="inlineStr"/>
       <c r="M909" t="n">
         <v>1</v>
       </c>
@@ -33627,14 +32953,8 @@
         <v>0</v>
       </c>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
+      <c r="L910" t="inlineStr"/>
       <c r="M910" t="n">
         <v>1</v>
       </c>
@@ -33668,14 +32988,8 @@
         <v>0</v>
       </c>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
+      <c r="L911" t="inlineStr"/>
       <c r="M911" t="n">
         <v>1</v>
       </c>
@@ -33709,14 +33023,8 @@
         <v>0</v>
       </c>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
+      <c r="L912" t="inlineStr"/>
       <c r="M912" t="n">
         <v>1</v>
       </c>
@@ -33750,14 +33058,8 @@
         <v>0</v>
       </c>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
+      <c r="L913" t="inlineStr"/>
       <c r="M913" t="n">
         <v>1</v>
       </c>
@@ -33791,14 +33093,8 @@
         <v>0</v>
       </c>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
+      <c r="L914" t="inlineStr"/>
       <c r="M914" t="n">
         <v>1</v>
       </c>
@@ -33832,14 +33128,8 @@
         <v>0</v>
       </c>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
+      <c r="L915" t="inlineStr"/>
       <c r="M915" t="n">
         <v>1</v>
       </c>
@@ -33873,14 +33163,8 @@
         <v>0</v>
       </c>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
+      <c r="L916" t="inlineStr"/>
       <c r="M916" t="n">
         <v>1</v>
       </c>
@@ -33914,14 +33198,8 @@
         <v>0</v>
       </c>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
+      <c r="L917" t="inlineStr"/>
       <c r="M917" t="n">
         <v>1</v>
       </c>
@@ -33955,14 +33233,8 @@
         <v>0</v>
       </c>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
+      <c r="L918" t="inlineStr"/>
       <c r="M918" t="n">
         <v>1</v>
       </c>
@@ -33996,14 +33268,8 @@
         <v>0</v>
       </c>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
+      <c r="L919" t="inlineStr"/>
       <c r="M919" t="n">
         <v>1</v>
       </c>
@@ -34037,14 +33303,8 @@
         <v>0</v>
       </c>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
+      <c r="L920" t="inlineStr"/>
       <c r="M920" t="n">
         <v>1</v>
       </c>
@@ -34078,14 +33338,8 @@
         <v>0</v>
       </c>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
+      <c r="L921" t="inlineStr"/>
       <c r="M921" t="n">
         <v>1</v>
       </c>
@@ -34119,14 +33373,8 @@
         <v>0</v>
       </c>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
+      <c r="L922" t="inlineStr"/>
       <c r="M922" t="n">
         <v>1</v>
       </c>
@@ -34160,14 +33408,8 @@
         <v>0</v>
       </c>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
+      <c r="L923" t="inlineStr"/>
       <c r="M923" t="n">
         <v>1</v>
       </c>
@@ -34201,14 +33443,8 @@
         <v>0</v>
       </c>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
+      <c r="L924" t="inlineStr"/>
       <c r="M924" t="n">
         <v>1</v>
       </c>
@@ -34242,14 +33478,8 @@
         <v>0</v>
       </c>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
+      <c r="L925" t="inlineStr"/>
       <c r="M925" t="n">
         <v>1</v>
       </c>
@@ -34283,14 +33513,8 @@
         <v>0</v>
       </c>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
+      <c r="L926" t="inlineStr"/>
       <c r="M926" t="n">
         <v>1</v>
       </c>
@@ -34324,14 +33548,8 @@
         <v>0</v>
       </c>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
+      <c r="L927" t="inlineStr"/>
       <c r="M927" t="n">
         <v>1</v>
       </c>
@@ -34365,14 +33583,8 @@
         <v>0</v>
       </c>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K928" t="inlineStr"/>
+      <c r="L928" t="inlineStr"/>
       <c r="M928" t="n">
         <v>1</v>
       </c>
@@ -34406,14 +33618,8 @@
         <v>0</v>
       </c>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K929" t="inlineStr"/>
+      <c r="L929" t="inlineStr"/>
       <c r="M929" t="n">
         <v>1</v>
       </c>
@@ -34447,14 +33653,8 @@
         <v>0</v>
       </c>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K930" t="inlineStr"/>
+      <c r="L930" t="inlineStr"/>
       <c r="M930" t="n">
         <v>1</v>
       </c>
@@ -34488,14 +33688,8 @@
         <v>0</v>
       </c>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K931" t="inlineStr"/>
+      <c r="L931" t="inlineStr"/>
       <c r="M931" t="n">
         <v>1</v>
       </c>
@@ -34529,14 +33723,8 @@
         <v>0</v>
       </c>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K932" t="inlineStr"/>
+      <c r="L932" t="inlineStr"/>
       <c r="M932" t="n">
         <v>1</v>
       </c>
@@ -34570,14 +33758,8 @@
         <v>0</v>
       </c>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K933" t="inlineStr"/>
+      <c r="L933" t="inlineStr"/>
       <c r="M933" t="n">
         <v>1</v>
       </c>
@@ -34611,14 +33793,8 @@
         <v>0</v>
       </c>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K934" t="inlineStr"/>
+      <c r="L934" t="inlineStr"/>
       <c r="M934" t="n">
         <v>1</v>
       </c>
@@ -34652,14 +33828,8 @@
         <v>0</v>
       </c>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K935" t="inlineStr"/>
+      <c r="L935" t="inlineStr"/>
       <c r="M935" t="n">
         <v>1</v>
       </c>
@@ -34693,14 +33863,8 @@
         <v>0</v>
       </c>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K936" t="inlineStr"/>
+      <c r="L936" t="inlineStr"/>
       <c r="M936" t="n">
         <v>1</v>
       </c>
@@ -34734,14 +33898,8 @@
         <v>0</v>
       </c>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
+      <c r="L937" t="inlineStr"/>
       <c r="M937" t="n">
         <v>1</v>
       </c>
@@ -34775,14 +33933,8 @@
         <v>0</v>
       </c>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
+      <c r="L938" t="inlineStr"/>
       <c r="M938" t="n">
         <v>1</v>
       </c>
@@ -34816,14 +33968,8 @@
         <v>0</v>
       </c>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
+      <c r="L939" t="inlineStr"/>
       <c r="M939" t="n">
         <v>1</v>
       </c>
@@ -34857,14 +34003,8 @@
         <v>0</v>
       </c>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
+      <c r="L940" t="inlineStr"/>
       <c r="M940" t="n">
         <v>1</v>
       </c>
@@ -34898,14 +34038,8 @@
         <v>0</v>
       </c>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
+      <c r="L941" t="inlineStr"/>
       <c r="M941" t="n">
         <v>1</v>
       </c>
@@ -34939,14 +34073,8 @@
         <v>0</v>
       </c>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
+      <c r="L942" t="inlineStr"/>
       <c r="M942" t="n">
         <v>1</v>
       </c>
@@ -34980,14 +34108,8 @@
         <v>0</v>
       </c>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
+      <c r="L943" t="inlineStr"/>
       <c r="M943" t="n">
         <v>1</v>
       </c>
@@ -35021,14 +34143,8 @@
         <v>0</v>
       </c>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
+      <c r="L944" t="inlineStr"/>
       <c r="M944" t="n">
         <v>1</v>
       </c>
@@ -35062,14 +34178,8 @@
         <v>0</v>
       </c>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
+      <c r="L945" t="inlineStr"/>
       <c r="M945" t="n">
         <v>1</v>
       </c>
@@ -35103,14 +34213,8 @@
         <v>0</v>
       </c>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
+      <c r="L946" t="inlineStr"/>
       <c r="M946" t="n">
         <v>1</v>
       </c>
@@ -35144,14 +34248,8 @@
         <v>0</v>
       </c>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
+      <c r="L947" t="inlineStr"/>
       <c r="M947" t="n">
         <v>1</v>
       </c>
@@ -35185,14 +34283,8 @@
         <v>0</v>
       </c>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K948" t="inlineStr"/>
+      <c r="L948" t="inlineStr"/>
       <c r="M948" t="n">
         <v>1</v>
       </c>
@@ -35226,14 +34318,8 @@
         <v>0</v>
       </c>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
+      <c r="L949" t="inlineStr"/>
       <c r="M949" t="n">
         <v>1</v>
       </c>
@@ -35267,14 +34353,8 @@
         <v>0</v>
       </c>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
+      <c r="L950" t="inlineStr"/>
       <c r="M950" t="n">
         <v>1</v>
       </c>
@@ -35308,14 +34388,8 @@
         <v>0</v>
       </c>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
+      <c r="L951" t="inlineStr"/>
       <c r="M951" t="n">
         <v>1</v>
       </c>
@@ -35349,14 +34423,8 @@
         <v>0</v>
       </c>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
+      <c r="L952" t="inlineStr"/>
       <c r="M952" t="n">
         <v>1</v>
       </c>
@@ -35390,14 +34458,8 @@
         <v>0</v>
       </c>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
+      <c r="L953" t="inlineStr"/>
       <c r="M953" t="n">
         <v>1</v>
       </c>
@@ -35431,14 +34493,8 @@
         <v>0</v>
       </c>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
+      <c r="L954" t="inlineStr"/>
       <c r="M954" t="n">
         <v>1</v>
       </c>
@@ -35472,14 +34528,8 @@
         <v>0</v>
       </c>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
+      <c r="L955" t="inlineStr"/>
       <c r="M955" t="n">
         <v>1</v>
       </c>
@@ -35513,14 +34563,8 @@
         <v>0</v>
       </c>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
+      <c r="L956" t="inlineStr"/>
       <c r="M956" t="n">
         <v>1</v>
       </c>
@@ -35554,14 +34598,8 @@
         <v>0</v>
       </c>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K957" t="inlineStr"/>
+      <c r="L957" t="inlineStr"/>
       <c r="M957" t="n">
         <v>1</v>
       </c>
@@ -35595,14 +34633,8 @@
         <v>0</v>
       </c>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K958" t="inlineStr"/>
+      <c r="L958" t="inlineStr"/>
       <c r="M958" t="n">
         <v>1</v>
       </c>
@@ -35636,14 +34668,8 @@
         <v>0</v>
       </c>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K959" t="inlineStr"/>
+      <c r="L959" t="inlineStr"/>
       <c r="M959" t="n">
         <v>1</v>
       </c>
@@ -35677,14 +34703,8 @@
         <v>0</v>
       </c>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K960" t="inlineStr"/>
+      <c r="L960" t="inlineStr"/>
       <c r="M960" t="n">
         <v>1</v>
       </c>
@@ -35718,14 +34738,8 @@
         <v>0</v>
       </c>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K961" t="inlineStr"/>
+      <c r="L961" t="inlineStr"/>
       <c r="M961" t="n">
         <v>1</v>
       </c>
@@ -35759,14 +34773,8 @@
         <v>0</v>
       </c>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K962" t="inlineStr"/>
+      <c r="L962" t="inlineStr"/>
       <c r="M962" t="n">
         <v>1</v>
       </c>
@@ -35800,14 +34808,8 @@
         <v>0</v>
       </c>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K963" t="inlineStr"/>
+      <c r="L963" t="inlineStr"/>
       <c r="M963" t="n">
         <v>1</v>
       </c>
@@ -35841,14 +34843,8 @@
         <v>0</v>
       </c>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K964" t="inlineStr"/>
+      <c r="L964" t="inlineStr"/>
       <c r="M964" t="n">
         <v>1</v>
       </c>
@@ -35882,14 +34878,8 @@
         <v>0</v>
       </c>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
+      <c r="L965" t="inlineStr"/>
       <c r="M965" t="n">
         <v>1</v>
       </c>
@@ -35923,14 +34913,8 @@
         <v>0</v>
       </c>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K966" t="inlineStr"/>
+      <c r="L966" t="inlineStr"/>
       <c r="M966" t="n">
         <v>1</v>
       </c>
@@ -35964,14 +34948,8 @@
         <v>0</v>
       </c>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K967" t="inlineStr"/>
+      <c r="L967" t="inlineStr"/>
       <c r="M967" t="n">
         <v>1</v>
       </c>
@@ -36005,14 +34983,8 @@
         <v>0</v>
       </c>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K968" t="inlineStr"/>
+      <c r="L968" t="inlineStr"/>
       <c r="M968" t="n">
         <v>1</v>
       </c>
@@ -36046,14 +35018,8 @@
         <v>0</v>
       </c>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K969" t="inlineStr"/>
+      <c r="L969" t="inlineStr"/>
       <c r="M969" t="n">
         <v>1</v>
       </c>
@@ -36087,14 +35053,8 @@
         <v>0</v>
       </c>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K970" t="inlineStr"/>
+      <c r="L970" t="inlineStr"/>
       <c r="M970" t="n">
         <v>1</v>
       </c>
@@ -36128,14 +35088,8 @@
         <v>0</v>
       </c>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K971" t="inlineStr"/>
+      <c r="L971" t="inlineStr"/>
       <c r="M971" t="n">
         <v>1</v>
       </c>
@@ -36169,14 +35123,8 @@
         <v>0</v>
       </c>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K972" t="inlineStr"/>
+      <c r="L972" t="inlineStr"/>
       <c r="M972" t="n">
         <v>1</v>
       </c>
@@ -36210,14 +35158,8 @@
         <v>0</v>
       </c>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K973" t="inlineStr"/>
+      <c r="L973" t="inlineStr"/>
       <c r="M973" t="n">
         <v>1</v>
       </c>
@@ -36251,14 +35193,8 @@
         <v>0</v>
       </c>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K974" t="inlineStr"/>
+      <c r="L974" t="inlineStr"/>
       <c r="M974" t="n">
         <v>1</v>
       </c>
@@ -36292,14 +35228,8 @@
         <v>0</v>
       </c>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
+      <c r="L975" t="inlineStr"/>
       <c r="M975" t="n">
         <v>1</v>
       </c>
@@ -36333,14 +35263,8 @@
         <v>0</v>
       </c>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
+      <c r="L976" t="inlineStr"/>
       <c r="M976" t="n">
         <v>1</v>
       </c>
@@ -36374,14 +35298,8 @@
         <v>0</v>
       </c>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
+      <c r="L977" t="inlineStr"/>
       <c r="M977" t="n">
         <v>1</v>
       </c>
@@ -36415,14 +35333,8 @@
         <v>0</v>
       </c>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
+      <c r="L978" t="inlineStr"/>
       <c r="M978" t="n">
         <v>1</v>
       </c>
@@ -36456,14 +35368,8 @@
         <v>0</v>
       </c>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
+      <c r="L979" t="inlineStr"/>
       <c r="M979" t="n">
         <v>1</v>
       </c>
@@ -36497,14 +35403,8 @@
         <v>0</v>
       </c>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
+      <c r="L980" t="inlineStr"/>
       <c r="M980" t="n">
         <v>1</v>
       </c>
@@ -36538,14 +35438,8 @@
         <v>0</v>
       </c>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
+      <c r="L981" t="inlineStr"/>
       <c r="M981" t="n">
         <v>1</v>
       </c>
@@ -36579,14 +35473,8 @@
         <v>0</v>
       </c>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
+      <c r="L982" t="inlineStr"/>
       <c r="M982" t="n">
         <v>1</v>
       </c>
@@ -36620,14 +35508,8 @@
         <v>0</v>
       </c>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
+      <c r="L983" t="inlineStr"/>
       <c r="M983" t="n">
         <v>1</v>
       </c>
@@ -36661,14 +35543,8 @@
         <v>0</v>
       </c>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
+      <c r="L984" t="inlineStr"/>
       <c r="M984" t="n">
         <v>1</v>
       </c>
@@ -36702,14 +35578,8 @@
         <v>0</v>
       </c>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
+      <c r="L985" t="inlineStr"/>
       <c r="M985" t="n">
         <v>1</v>
       </c>
@@ -36743,14 +35613,8 @@
         <v>0</v>
       </c>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
+      <c r="L986" t="inlineStr"/>
       <c r="M986" t="n">
         <v>1</v>
       </c>
@@ -36784,14 +35648,8 @@
         <v>0</v>
       </c>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
+      <c r="L987" t="inlineStr"/>
       <c r="M987" t="n">
         <v>1</v>
       </c>
@@ -36825,14 +35683,8 @@
         <v>0</v>
       </c>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
+      <c r="L988" t="inlineStr"/>
       <c r="M988" t="n">
         <v>1</v>
       </c>
@@ -36866,14 +35718,8 @@
         <v>0</v>
       </c>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
+      <c r="L989" t="inlineStr"/>
       <c r="M989" t="n">
         <v>1</v>
       </c>
@@ -36907,14 +35753,8 @@
         <v>0</v>
       </c>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
+      <c r="L990" t="inlineStr"/>
       <c r="M990" t="n">
         <v>1</v>
       </c>
@@ -36948,14 +35788,8 @@
         <v>0</v>
       </c>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
+      <c r="L991" t="inlineStr"/>
       <c r="M991" t="n">
         <v>1</v>
       </c>
@@ -36989,14 +35823,8 @@
         <v>0</v>
       </c>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
+      <c r="L992" t="inlineStr"/>
       <c r="M992" t="n">
         <v>1</v>
       </c>
@@ -37030,14 +35858,8 @@
         <v>0</v>
       </c>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
+      <c r="L993" t="inlineStr"/>
       <c r="M993" t="n">
         <v>1</v>
       </c>
@@ -37071,14 +35893,8 @@
         <v>0</v>
       </c>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
+      <c r="L994" t="inlineStr"/>
       <c r="M994" t="n">
         <v>1</v>
       </c>
@@ -37112,14 +35928,8 @@
         <v>0</v>
       </c>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
+      <c r="L995" t="inlineStr"/>
       <c r="M995" t="n">
         <v>1</v>
       </c>
@@ -37153,14 +35963,8 @@
         <v>0</v>
       </c>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
+      <c r="L996" t="inlineStr"/>
       <c r="M996" t="n">
         <v>1</v>
       </c>
@@ -37194,14 +35998,8 @@
         <v>0</v>
       </c>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
+      <c r="L997" t="inlineStr"/>
       <c r="M997" t="n">
         <v>1</v>
       </c>
@@ -37235,14 +36033,8 @@
         <v>0</v>
       </c>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
+      <c r="L998" t="inlineStr"/>
       <c r="M998" t="n">
         <v>1</v>
       </c>
@@ -37276,14 +36068,8 @@
         <v>0</v>
       </c>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
+      <c r="L999" t="inlineStr"/>
       <c r="M999" t="n">
         <v>1</v>
       </c>
@@ -37317,14 +36103,8 @@
         <v>0</v>
       </c>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
+      <c r="L1000" t="inlineStr"/>
       <c r="M1000" t="n">
         <v>1</v>
       </c>
@@ -37358,14 +36138,8 @@
         <v>0</v>
       </c>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
+      <c r="L1001" t="inlineStr"/>
       <c r="M1001" t="n">
         <v>1</v>
       </c>
@@ -37399,14 +36173,8 @@
         <v>0</v>
       </c>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
+      <c r="L1002" t="inlineStr"/>
       <c r="M1002" t="n">
         <v>1</v>
       </c>
@@ -37440,14 +36208,8 @@
         <v>0</v>
       </c>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
+      <c r="L1003" t="inlineStr"/>
       <c r="M1003" t="n">
         <v>1</v>
       </c>
@@ -37481,14 +36243,8 @@
         <v>0</v>
       </c>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
+      <c r="L1004" t="inlineStr"/>
       <c r="M1004" t="n">
         <v>1</v>
       </c>
@@ -37522,14 +36278,8 @@
         <v>0</v>
       </c>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
+      <c r="L1005" t="inlineStr"/>
       <c r="M1005" t="n">
         <v>1</v>
       </c>
@@ -37563,14 +36313,8 @@
         <v>0</v>
       </c>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
+      <c r="L1006" t="inlineStr"/>
       <c r="M1006" t="n">
         <v>1</v>
       </c>
@@ -37604,14 +36348,8 @@
         <v>0</v>
       </c>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
+      <c r="L1007" t="inlineStr"/>
       <c r="M1007" t="n">
         <v>1</v>
       </c>
@@ -37645,14 +36383,8 @@
         <v>0</v>
       </c>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
+      <c r="L1008" t="inlineStr"/>
       <c r="M1008" t="n">
         <v>1</v>
       </c>
@@ -37686,14 +36418,8 @@
         <v>0</v>
       </c>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
+      <c r="L1009" t="inlineStr"/>
       <c r="M1009" t="n">
         <v>1</v>
       </c>
@@ -37727,14 +36453,8 @@
         <v>0</v>
       </c>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
+      <c r="L1010" t="inlineStr"/>
       <c r="M1010" t="n">
         <v>1</v>
       </c>
@@ -37768,14 +36488,8 @@
         <v>0</v>
       </c>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
+      <c r="L1011" t="inlineStr"/>
       <c r="M1011" t="n">
         <v>1</v>
       </c>
@@ -37809,14 +36523,8 @@
         <v>0</v>
       </c>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
+      <c r="L1012" t="inlineStr"/>
       <c r="M1012" t="n">
         <v>1</v>
       </c>
@@ -37850,14 +36558,8 @@
         <v>0</v>
       </c>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
+      <c r="L1013" t="inlineStr"/>
       <c r="M1013" t="n">
         <v>1</v>
       </c>
@@ -37891,14 +36593,8 @@
         <v>0</v>
       </c>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
+      <c r="L1014" t="inlineStr"/>
       <c r="M1014" t="n">
         <v>1</v>
       </c>
@@ -37932,14 +36628,8 @@
         <v>0</v>
       </c>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
+      <c r="L1015" t="inlineStr"/>
       <c r="M1015" t="n">
         <v>1</v>
       </c>
@@ -37973,14 +36663,8 @@
         <v>0</v>
       </c>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
+      <c r="L1016" t="inlineStr"/>
       <c r="M1016" t="n">
         <v>1</v>
       </c>
@@ -38014,14 +36698,8 @@
         <v>0</v>
       </c>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
+      <c r="L1017" t="inlineStr"/>
       <c r="M1017" t="n">
         <v>1</v>
       </c>
@@ -38055,14 +36733,8 @@
         <v>0</v>
       </c>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
+      <c r="L1018" t="inlineStr"/>
       <c r="M1018" t="n">
         <v>1</v>
       </c>
@@ -38096,14 +36768,8 @@
         <v>0</v>
       </c>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
+      <c r="L1019" t="inlineStr"/>
       <c r="M1019" t="n">
         <v>1</v>
       </c>
@@ -38137,14 +36803,8 @@
         <v>0</v>
       </c>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
+      <c r="L1020" t="inlineStr"/>
       <c r="M1020" t="n">
         <v>1</v>
       </c>
@@ -38178,14 +36838,8 @@
         <v>0</v>
       </c>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
+      <c r="L1021" t="inlineStr"/>
       <c r="M1021" t="n">
         <v>1</v>
       </c>
@@ -38219,14 +36873,8 @@
         <v>0</v>
       </c>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
+      <c r="L1022" t="inlineStr"/>
       <c r="M1022" t="n">
         <v>1</v>
       </c>
@@ -38260,14 +36908,8 @@
         <v>0</v>
       </c>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
+      <c r="L1023" t="inlineStr"/>
       <c r="M1023" t="n">
         <v>1</v>
       </c>
@@ -38301,14 +36943,8 @@
         <v>0</v>
       </c>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
+      <c r="L1024" t="inlineStr"/>
       <c r="M1024" t="n">
         <v>1</v>
       </c>
@@ -38342,14 +36978,8 @@
         <v>0</v>
       </c>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
+      <c r="L1025" t="inlineStr"/>
       <c r="M1025" t="n">
         <v>1</v>
       </c>
@@ -38383,14 +37013,8 @@
         <v>0</v>
       </c>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
+      <c r="L1026" t="inlineStr"/>
       <c r="M1026" t="n">
         <v>1</v>
       </c>
@@ -38424,14 +37048,8 @@
         <v>0</v>
       </c>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
+      <c r="L1027" t="inlineStr"/>
       <c r="M1027" t="n">
         <v>1</v>
       </c>
@@ -38465,14 +37083,8 @@
         <v>0</v>
       </c>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
+      <c r="L1028" t="inlineStr"/>
       <c r="M1028" t="n">
         <v>1</v>
       </c>
@@ -38506,14 +37118,8 @@
         <v>0</v>
       </c>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
+      <c r="L1029" t="inlineStr"/>
       <c r="M1029" t="n">
         <v>1</v>
       </c>
@@ -38547,14 +37153,8 @@
         <v>0</v>
       </c>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
+      <c r="L1030" t="inlineStr"/>
       <c r="M1030" t="n">
         <v>1</v>
       </c>
@@ -38588,14 +37188,8 @@
         <v>0</v>
       </c>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
+      <c r="L1031" t="inlineStr"/>
       <c r="M1031" t="n">
         <v>1</v>
       </c>
@@ -38629,14 +37223,8 @@
         <v>0</v>
       </c>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
+      <c r="L1032" t="inlineStr"/>
       <c r="M1032" t="n">
         <v>1</v>
       </c>
@@ -38670,14 +37258,8 @@
         <v>0</v>
       </c>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
+      <c r="L1033" t="inlineStr"/>
       <c r="M1033" t="n">
         <v>1</v>
       </c>
@@ -38711,14 +37293,8 @@
         <v>0</v>
       </c>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
+      <c r="L1034" t="inlineStr"/>
       <c r="M1034" t="n">
         <v>1</v>
       </c>
@@ -38752,14 +37328,8 @@
         <v>0</v>
       </c>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
+      <c r="L1035" t="inlineStr"/>
       <c r="M1035" t="n">
         <v>1</v>
       </c>
@@ -38793,14 +37363,8 @@
         <v>0</v>
       </c>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
+      <c r="L1036" t="inlineStr"/>
       <c r="M1036" t="n">
         <v>1</v>
       </c>
@@ -38831,17 +37395,11 @@
         <v>0</v>
       </c>
       <c r="I1037" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
+      <c r="L1037" t="inlineStr"/>
       <c r="M1037" t="n">
         <v>1</v>
       </c>
@@ -38872,19 +37430,13 @@
         <v>0</v>
       </c>
       <c r="I1038" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="n">
-        <v>2649</v>
-      </c>
-      <c r="L1038" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
+      <c r="L1038" t="inlineStr"/>
       <c r="M1038" t="n">
-        <v>1.048605134012835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039">
@@ -38913,7 +37465,7 @@
         <v>0</v>
       </c>
       <c r="I1039" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr"/>
@@ -38948,7 +37500,7 @@
         <v>0</v>
       </c>
       <c r="I1040" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr"/>
@@ -39088,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="I1044" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr"/>
@@ -39123,7 +37675,7 @@
         <v>0</v>
       </c>
       <c r="I1045" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-29 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>129189.5799703</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>134030.34424336</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>134030.34424336</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>133310.72894336</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>146364.01445817</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>188235.50352336</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>181196.88096126</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>156764.63321944</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>163565.83899649</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>159117.51237649</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>150155.88057649</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>148872.1915764899</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>168138.08113796</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>170685.37883796</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>194532.6206379599</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>206271.3183655899</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>199987.85014921</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>191841.52404921</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>198838.3363492099</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>193080.6950230199</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>208690.3005282999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>225235.7606153599</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>222890.7273153599</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>204386.8400821499</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>210761.0868855199</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>222736.4884695599</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>216584.7915123199</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>216823.9593123199</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>214562.0701123199</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>209990.9823123199</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>204947.1375123199</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>227610.0412123199</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>227610.0412123199</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>220252.3216123199</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>215428.0365123199</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>217301.7257532399</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>223705.8131399599</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>222398.1686399599</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>213275.8690399599</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>213275.8690399599</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>215773.1661399599</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>212709.6255276599</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>208963.6127276599</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>213688.4659276599</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>210448.5810802199</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>214074.2169802199</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>217254.7986802199</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>217944.1434802199</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>217725.9534802199</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>227596.3848592199</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>229485.3531802199</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>233074.4918802199</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>231730.9136802199</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>232586.6538802199</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>235027.1526802199</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>231581.0727802199</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>229343.4336802199</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>227457.4782802199</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>224888.2172802199</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>217419.9935802199</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>215933.5561905199</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>208256.6087905199</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>210558.6077329499</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>207516.1291329499</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>216134.1250329499</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>210584.6380329499</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>204525.1819329499</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>194427.9099580399</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>194427.9099580399</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>200075.6749958699</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>208051.5614958699</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>212963.0186958699</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>210471.8609958699</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>211743.7670537399</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>212740.0151150799</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>208613.0999779699</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>210714.7285105299</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>213339.7821373199</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>207230.1086446899</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>208331.2008446899</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>212619.2796446899</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>215429.9528446899</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>222143.6265446899</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>229062.4921901599</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>224194.2578901599</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>222916.9837901599</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>225166.1849901599</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>223477.4530901599</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>220434.4517901599</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>220306.2766901599</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>220589.3394901599</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>221678.6473901599</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>221121.7926901599</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>221121.7926901599</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>223770.2998568199</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>223395.3943568199</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>224362.6326568199</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>218912.2918568199</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>218361.9502568199</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>218468.1898568199</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>218478.5934568199</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>218078.1762568199</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>218632.8882568199</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>219116.9342568199</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>222116.1300568199</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>220590.2221568199</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>223680.1682194999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>223176.5966194999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>223176.5966194999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>223176.5966194999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>223176.5966194999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>222578.5685194999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>219709.6704194999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>219709.6704194999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>219709.6704194999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>218675.5093194999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>217954.2506194999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>218133.5599194999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>218489.7235194999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>218521.4906194999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>218303.0143194999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>216669.6707615799</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>212756.2407956499</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>214804.6567956499</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>213153.0596956499</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>212463.4826956499</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>212846.5796956499</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>212392.4911956499</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>210544.4815956499</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>209112.6551956499</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>203857.8921956499</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>197633.6076956499</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>197633.6076956499</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>204419.4767956499</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>204419.4767956499</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>203835.7642956499</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>217233.5698956499</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>202712.8446956499</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>206188.8454956499</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>205696.0033956499</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>203170.6208681699</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>203170.6208681699</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>203170.6208681699</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>205638.5160411599</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>203196.4152411599</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>197508.6858200599</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>201417.0728200599</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>199056.7715200599</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>196973.9763200599</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>194616.2511200599</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>202491.9635200599</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>216059.7121200599</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>212734.3501200599</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>212759.1000200599</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>225870.7026200599</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>229236.9036200599</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>227882.7615200599</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>231423.2068200599</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>234575.7185200599</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>237967.5626200599</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>236885.7543200599</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>216618.1414183099</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>212414.8460183099</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>211838.8160183099</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>246536.0474456999</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>263517.2841111801</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>263480.60981118</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>265844.5966111801</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>265918.2831111801</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -26026,11 +26026,17 @@
         <v>163124.3824658902</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>2642</v>
+      </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26063,7 +26069,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26096,7 +26106,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26125,11 +26139,17 @@
         <v>162287.4737658902</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>2616</v>
+      </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26158,11 +26178,17 @@
         <v>170493.8315658902</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>2606</v>
+      </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26191,11 +26217,17 @@
         <v>161038.8761658902</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>2610</v>
+      </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26228,7 +26260,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26257,11 +26293,17 @@
         <v>157656.9490910102</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>2624</v>
+      </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26290,11 +26332,17 @@
         <v>155497.8113910102</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>2615</v>
+      </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26328,10 +26376,12 @@
       <c r="I786" t="n">
         <v>2610</v>
       </c>
-      <c r="J786" t="n">
-        <v>2610</v>
-      </c>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26365,12 +26415,10 @@
       <c r="I787" t="n">
         <v>2615</v>
       </c>
-      <c r="J787" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L787" t="n">
@@ -26406,9 +26454,7 @@
       <c r="I788" t="n">
         <v>2610</v>
       </c>
-      <c r="J788" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26447,9 +26493,7 @@
       <c r="I789" t="n">
         <v>2610</v>
       </c>
-      <c r="J789" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26488,9 +26532,7 @@
       <c r="I790" t="n">
         <v>2610</v>
       </c>
-      <c r="J790" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26529,9 +26571,7 @@
       <c r="I791" t="n">
         <v>2607</v>
       </c>
-      <c r="J791" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26570,9 +26610,7 @@
       <c r="I792" t="n">
         <v>2615</v>
       </c>
-      <c r="J792" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26611,9 +26649,7 @@
       <c r="I793" t="n">
         <v>2615</v>
       </c>
-      <c r="J793" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26652,9 +26688,7 @@
       <c r="I794" t="n">
         <v>2610</v>
       </c>
-      <c r="J794" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26693,9 +26727,7 @@
       <c r="I795" t="n">
         <v>2610</v>
       </c>
-      <c r="J795" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26734,9 +26766,7 @@
       <c r="I796" t="n">
         <v>2609</v>
       </c>
-      <c r="J796" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26775,9 +26805,7 @@
       <c r="I797" t="n">
         <v>2609</v>
       </c>
-      <c r="J797" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26816,9 +26844,7 @@
       <c r="I798" t="n">
         <v>2605</v>
       </c>
-      <c r="J798" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26857,9 +26883,7 @@
       <c r="I799" t="n">
         <v>2605</v>
       </c>
-      <c r="J799" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26898,9 +26922,7 @@
       <c r="I800" t="n">
         <v>2609</v>
       </c>
-      <c r="J800" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26939,9 +26961,7 @@
       <c r="I801" t="n">
         <v>2609</v>
       </c>
-      <c r="J801" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26980,9 +27000,7 @@
       <c r="I802" t="n">
         <v>2617</v>
       </c>
-      <c r="J802" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27021,9 +27039,7 @@
       <c r="I803" t="n">
         <v>2606</v>
       </c>
-      <c r="J803" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27062,9 +27078,7 @@
       <c r="I804" t="n">
         <v>2606</v>
       </c>
-      <c r="J804" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27103,9 +27117,7 @@
       <c r="I805" t="n">
         <v>2622</v>
       </c>
-      <c r="J805" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27144,9 +27156,7 @@
       <c r="I806" t="n">
         <v>2614</v>
       </c>
-      <c r="J806" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27185,9 +27195,7 @@
       <c r="I807" t="n">
         <v>2611</v>
       </c>
-      <c r="J807" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27226,9 +27234,7 @@
       <c r="I808" t="n">
         <v>2613</v>
       </c>
-      <c r="J808" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27267,9 +27273,7 @@
       <c r="I809" t="n">
         <v>2620</v>
       </c>
-      <c r="J809" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27308,9 +27312,7 @@
       <c r="I810" t="n">
         <v>2609</v>
       </c>
-      <c r="J810" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27349,9 +27351,7 @@
       <c r="I811" t="n">
         <v>2622</v>
       </c>
-      <c r="J811" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27390,9 +27390,7 @@
       <c r="I812" t="n">
         <v>2626</v>
       </c>
-      <c r="J812" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27431,9 +27429,7 @@
       <c r="I813" t="n">
         <v>2626</v>
       </c>
-      <c r="J813" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27472,9 +27468,7 @@
       <c r="I814" t="n">
         <v>2629</v>
       </c>
-      <c r="J814" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27513,9 +27507,7 @@
       <c r="I815" t="n">
         <v>2621</v>
       </c>
-      <c r="J815" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27554,9 +27546,7 @@
       <c r="I816" t="n">
         <v>2641</v>
       </c>
-      <c r="J816" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27595,9 +27585,7 @@
       <c r="I817" t="n">
         <v>2641</v>
       </c>
-      <c r="J817" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27636,9 +27624,7 @@
       <c r="I818" t="n">
         <v>2627</v>
       </c>
-      <c r="J818" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27677,9 +27663,7 @@
       <c r="I819" t="n">
         <v>2636</v>
       </c>
-      <c r="J819" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27718,9 +27702,7 @@
       <c r="I820" t="n">
         <v>2644</v>
       </c>
-      <c r="J820" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27759,9 +27741,7 @@
       <c r="I821" t="n">
         <v>2640</v>
       </c>
-      <c r="J821" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27800,9 +27780,7 @@
       <c r="I822" t="n">
         <v>2634</v>
       </c>
-      <c r="J822" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27841,9 +27819,7 @@
       <c r="I823" t="n">
         <v>2640</v>
       </c>
-      <c r="J823" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27882,9 +27858,7 @@
       <c r="I824" t="n">
         <v>2651</v>
       </c>
-      <c r="J824" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27923,9 +27897,7 @@
       <c r="I825" t="n">
         <v>2654</v>
       </c>
-      <c r="J825" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27964,9 +27936,7 @@
       <c r="I826" t="n">
         <v>2653</v>
       </c>
-      <c r="J826" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28000,14 +27970,10 @@
         <v>164586.8004701303</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
-      </c>
-      <c r="I827" t="n">
-        <v>2660</v>
-      </c>
-      <c r="J827" t="n">
-        <v>2610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28046,9 +28012,7 @@
       <c r="I828" t="n">
         <v>2660</v>
       </c>
-      <c r="J828" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28082,14 +28046,10 @@
         <v>163065.0645701303</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>2648</v>
-      </c>
-      <c r="J829" t="n">
-        <v>2610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28123,12 +28083,12 @@
         <v>163675.4240701302</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>2639</v>
+      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28167,9 +28127,7 @@
       <c r="I831" t="n">
         <v>2650</v>
       </c>
-      <c r="J831" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28208,9 +28166,7 @@
       <c r="I832" t="n">
         <v>2650</v>
       </c>
-      <c r="J832" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28249,9 +28205,7 @@
       <c r="I833" t="n">
         <v>2655</v>
       </c>
-      <c r="J833" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28290,9 +28244,7 @@
       <c r="I834" t="n">
         <v>2660</v>
       </c>
-      <c r="J834" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28331,9 +28283,7 @@
       <c r="I835" t="n">
         <v>2668</v>
       </c>
-      <c r="J835" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28367,12 +28317,12 @@
         <v>167268.6046701303</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>2673</v>
+      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28411,9 +28361,7 @@
       <c r="I837" t="n">
         <v>2673</v>
       </c>
-      <c r="J837" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28452,9 +28400,7 @@
       <c r="I838" t="n">
         <v>2660</v>
       </c>
-      <c r="J838" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28491,9 +28437,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28527,12 +28471,12 @@
         <v>167572.8092701303</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>2662</v>
+      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28566,12 +28510,12 @@
         <v>168818.5082701303</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>2663</v>
+      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28605,12 +28549,12 @@
         <v>169826.2788701302</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>2664</v>
+      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28644,12 +28588,12 @@
         <v>170417.9251471203</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>2674</v>
+      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28683,12 +28627,12 @@
         <v>164242.5294471203</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>2679</v>
+      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28725,9 +28669,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28764,9 +28706,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28803,9 +28743,7 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28842,9 +28780,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28881,9 +28817,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28920,9 +28854,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28959,9 +28891,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28998,9 +28928,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29037,9 +28965,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29076,9 +29002,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29115,9 +29039,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29154,9 +29076,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29193,9 +29113,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29232,9 +29150,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29271,9 +29187,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29310,9 +29224,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29346,12 +29258,12 @@
         <v>141376.2357471203</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>2652</v>
+      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29385,12 +29297,12 @@
         <v>141376.2357471203</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>2650</v>
+      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29424,12 +29336,12 @@
         <v>141376.2357471203</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>2650</v>
+      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29463,12 +29375,12 @@
         <v>141282.3041471203</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>2650</v>
+      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29502,12 +29414,12 @@
         <v>140079.4884471203</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>2647</v>
+      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29541,12 +29453,12 @@
         <v>137617.5730471203</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>2639</v>
+      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29580,12 +29492,12 @@
         <v>138946.2585471203</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>2624</v>
+      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29619,12 +29531,12 @@
         <v>136092.0845471203</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>2634</v>
+      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29658,12 +29570,12 @@
         <v>136167.0227471203</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>2632</v>
+      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29697,12 +29609,12 @@
         <v>138029.6440471203</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>2638</v>
+      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29736,12 +29648,12 @@
         <v>137167.3629471203</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>2647</v>
+      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29775,12 +29687,12 @@
         <v>138240.0136471203</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>2644</v>
+      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29814,12 +29726,12 @@
         <v>138216.2231471203</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>2645</v>
+      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29853,12 +29765,12 @@
         <v>138239.9592471203</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>2637</v>
+      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29892,12 +29804,12 @@
         <v>138216.9738471203</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>2638</v>
+      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29936,9 +29848,7 @@
       <c r="I876" t="n">
         <v>2637</v>
       </c>
-      <c r="J876" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29977,9 +29887,7 @@
       <c r="I877" t="n">
         <v>2637</v>
       </c>
-      <c r="J877" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30013,12 +29921,12 @@
         <v>136992.1152471203</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>2636</v>
+      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30052,12 +29960,12 @@
         <v>137536.9928471203</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>2629</v>
+      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30096,9 +30004,7 @@
       <c r="I880" t="n">
         <v>2636</v>
       </c>
-      <c r="J880" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30137,9 +30043,7 @@
       <c r="I881" t="n">
         <v>2636</v>
       </c>
-      <c r="J881" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30178,9 +30082,7 @@
       <c r="I882" t="n">
         <v>2637</v>
       </c>
-      <c r="J882" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30214,12 +30116,12 @@
         <v>138060.7013471203</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>2648</v>
+      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30253,12 +30155,12 @@
         <v>137983.9911471203</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>2647</v>
+      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30292,12 +30194,12 @@
         <v>137953.1620471203</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>2645</v>
+      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30331,12 +30233,12 @@
         <v>137681.0378471203</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>2644</v>
+      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30370,12 +30272,12 @@
         <v>137681.0378471203</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>2637</v>
+      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30414,9 +30316,7 @@
       <c r="I888" t="n">
         <v>2637</v>
       </c>
-      <c r="J888" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30450,12 +30350,12 @@
         <v>135297.4935471203</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>2633</v>
+      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30494,9 +30394,7 @@
       <c r="I890" t="n">
         <v>2623</v>
       </c>
-      <c r="J890" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30530,12 +30428,12 @@
         <v>134995.3583471203</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>2655</v>
+      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30569,12 +30467,12 @@
         <v>134929.8164471203</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>2653</v>
+      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30608,12 +30506,12 @@
         <v>135028.6984471203</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>2648</v>
+      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30647,12 +30545,12 @@
         <v>135270.5920471203</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>2667</v>
+      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30686,12 +30584,12 @@
         <v>134691.4602471203</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>2669</v>
+      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30725,12 +30623,12 @@
         <v>134914.3139471203</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>2665</v>
+      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30764,12 +30662,12 @@
         <v>134914.4139471203</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>2670</v>
+      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30803,12 +30701,12 @@
         <v>134817.5701471203</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>2677</v>
+      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30842,12 +30740,12 @@
         <v>135234.2009471203</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>2670</v>
+      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30881,12 +30779,12 @@
         <v>141836.6763471203</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>2677</v>
+      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30920,12 +30818,12 @@
         <v>139898.6750471203</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>2681</v>
+      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30959,12 +30857,12 @@
         <v>140927.1505471203</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>2676</v>
+      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30998,12 +30896,12 @@
         <v>141842.0938471204</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>2684</v>
+      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31037,12 +30935,12 @@
         <v>144273.4290471204</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>2685</v>
+      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31076,12 +30974,12 @@
         <v>143829.1158471204</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>2690</v>
+      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31115,12 +31013,12 @@
         <v>143906.0672471203</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>2689</v>
+      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31154,12 +31052,12 @@
         <v>143906.0672471203</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>2690</v>
+      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31193,12 +31091,12 @@
         <v>145461.0940471203</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>2690</v>
+      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31232,12 +31130,12 @@
         <v>145912.2190471203</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>2710</v>
+      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31271,12 +31169,12 @@
         <v>145869.6024471203</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>2713</v>
+      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31310,12 +31208,12 @@
         <v>146029.6024471203</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>2700</v>
+      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31349,12 +31247,12 @@
         <v>145931.8024471203</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>2709</v>
+      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31388,12 +31286,12 @@
         <v>147548.5289471203</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>2707</v>
+      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31430,9 +31328,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31469,9 +31365,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31508,9 +31402,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31547,9 +31439,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31583,12 +31473,12 @@
         <v>146582.3576471203</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>2679</v>
+      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31622,12 +31512,12 @@
         <v>147919.4919471203</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>2680</v>
+      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31661,12 +31551,12 @@
         <v>147481.6370471203</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>2683</v>
+      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31700,12 +31590,12 @@
         <v>147756.2034471204</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>2674</v>
+      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31739,12 +31629,12 @@
         <v>147497.2240471203</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>2675</v>
+      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31778,12 +31668,12 @@
         <v>147497.2240471203</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>2672</v>
+      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31817,12 +31707,12 @@
         <v>147123.4994471204</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>2672</v>
+      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31856,12 +31746,12 @@
         <v>147164.6175471203</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>2671</v>
+      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31895,12 +31785,12 @@
         <v>146966.5215471204</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>2672</v>
+      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31934,12 +31824,12 @@
         <v>147123.0339471204</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>2671</v>
+      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31973,12 +31863,12 @@
         <v>147123.0339471204</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>2672</v>
+      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32012,12 +31902,12 @@
         <v>146172.1569471204</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>2672</v>
+      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32051,12 +31941,12 @@
         <v>146472.1569471204</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>2671</v>
+      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32090,12 +31980,12 @@
         <v>146330.3570471203</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>2672</v>
+      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32129,12 +32019,12 @@
         <v>146330.3570471203</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>2671</v>
+      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32168,12 +32058,12 @@
         <v>147858.7657471203</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I933" t="n">
+        <v>2671</v>
+      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32207,12 +32097,12 @@
         <v>148068.9557471203</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>2677</v>
+      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32246,12 +32136,12 @@
         <v>148068.9557471203</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>2683</v>
+      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32285,12 +32175,12 @@
         <v>148993.9936471203</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>2683</v>
+      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32324,12 +32214,12 @@
         <v>149325.0955471203</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>2684</v>
+      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32363,12 +32253,12 @@
         <v>150172.6135471204</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>2692</v>
+      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32405,9 +32295,7 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32444,9 +32332,7 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32483,9 +32369,7 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32522,9 +32406,7 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32561,9 +32443,7 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32600,9 +32480,7 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32639,9 +32517,7 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32678,9 +32554,7 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32717,9 +32591,7 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32756,9 +32628,7 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32795,9 +32665,7 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32834,9 +32702,7 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32873,9 +32739,7 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32912,9 +32776,7 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32951,9 +32813,7 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32990,9 +32850,7 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33029,9 +32887,7 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33068,9 +32924,7 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33107,9 +32961,7 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33146,9 +32998,7 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33185,9 +33035,7 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33224,9 +33072,7 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33263,9 +33109,7 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33302,9 +33146,7 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33341,9 +33183,7 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33380,9 +33220,7 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33419,9 +33257,7 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33455,12 +33291,12 @@
         <v>129558.8339471203</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>2683</v>
+      </c>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33497,9 +33333,7 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33536,9 +33370,7 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33575,9 +33407,7 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33614,9 +33444,7 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33653,9 +33481,7 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33692,9 +33518,7 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33731,9 +33555,7 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33770,9 +33592,7 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33809,9 +33629,7 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33848,9 +33666,7 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33887,9 +33703,7 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33926,9 +33740,7 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33965,9 +33777,7 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34004,9 +33814,7 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34043,9 +33851,7 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34082,9 +33888,7 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34121,9 +33925,7 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34160,9 +33962,7 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34199,9 +33999,7 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34238,9 +34036,7 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34277,9 +34073,7 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34316,9 +34110,7 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34355,9 +34147,7 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34394,9 +34184,7 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34433,9 +34221,7 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34472,9 +34258,7 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34511,9 +34295,7 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34550,9 +34332,7 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34589,9 +34369,7 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34628,9 +34406,7 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34667,9 +34443,7 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34706,9 +34480,7 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34745,9 +34517,7 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34784,9 +34554,7 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34823,9 +34591,7 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34862,9 +34628,7 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34898,12 +34662,12 @@
         <v>132283.7627471203</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>2680</v>
+      </c>
+      <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34937,12 +34701,12 @@
         <v>131991.0689471203</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>2692</v>
+      </c>
+      <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34976,12 +34740,12 @@
         <v>132192.2993471203</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>2691</v>
+      </c>
+      <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35015,12 +34779,12 @@
         <v>133192.1166471203</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>2700</v>
+      </c>
+      <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35057,9 +34821,7 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35096,9 +34858,7 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35135,9 +34895,7 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35174,9 +34932,7 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35213,9 +34969,7 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35252,9 +35006,7 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35291,9 +35043,7 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35330,9 +35080,7 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35369,9 +35117,7 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35408,9 +35154,7 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35447,9 +35191,7 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35486,9 +35228,7 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35525,9 +35265,7 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35564,9 +35302,7 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35603,9 +35339,7 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35642,9 +35376,7 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35681,9 +35413,7 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35720,9 +35450,7 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35759,9 +35487,7 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35798,9 +35524,7 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35837,9 +35561,7 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35876,9 +35598,7 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35915,9 +35635,7 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35954,9 +35672,7 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35993,9 +35709,7 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36032,9 +35746,7 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36071,9 +35783,7 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36110,9 +35820,7 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36149,9 +35857,7 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36188,9 +35894,7 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36227,9 +35931,7 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36266,9 +35968,7 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36305,9 +36005,7 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36344,9 +36042,7 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36383,9 +36079,7 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36422,9 +36116,7 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36461,9 +36153,7 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36500,9 +36190,7 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36539,9 +36227,7 @@
         <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36578,9 +36264,7 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36617,9 +36301,7 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36656,9 +36338,7 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36695,9 +36375,7 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36734,9 +36412,7 @@
         <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36773,9 +36449,7 @@
         <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36812,9 +36486,7 @@
         <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36851,9 +36523,7 @@
         <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36890,9 +36560,7 @@
         <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36929,9 +36597,7 @@
         <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36968,9 +36634,7 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37007,9 +36671,7 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37046,9 +36708,7 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37085,9 +36745,7 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37124,9 +36782,7 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37160,12 +36816,12 @@
         <v>131519.7758388903</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>2708</v>
+      </c>
+      <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37199,12 +36855,12 @@
         <v>131206.2564384503</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>2708</v>
+      </c>
+      <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37238,12 +36894,12 @@
         <v>131445.1871384503</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>2707</v>
+      </c>
+      <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37277,12 +36933,12 @@
         <v>128212.6253384503</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>2708</v>
+      </c>
+      <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37316,12 +36972,12 @@
         <v>125250.2305384503</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>2706</v>
+      </c>
+      <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37355,12 +37011,12 @@
         <v>125582.7196384503</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>2703</v>
+      </c>
+      <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37394,12 +37050,12 @@
         <v>126211.7318384503</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>2709</v>
+      </c>
+      <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37433,12 +37089,12 @@
         <v>125279.4683384503</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>2714</v>
+      </c>
+      <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37472,12 +37128,12 @@
         <v>125245.6518384503</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>2713</v>
+      </c>
+      <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37511,12 +37167,12 @@
         <v>127842.6620384503</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>2712</v>
+      </c>
+      <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37550,12 +37206,12 @@
         <v>128998.4524384503</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>2713</v>
+      </c>
+      <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37589,12 +37245,12 @@
         <v>131056.5927624703</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>2714</v>
+      </c>
+      <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37628,12 +37284,12 @@
         <v>128549.7084624703</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>2722</v>
+      </c>
+      <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37667,12 +37323,12 @@
         <v>129481.9528624703</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>2714</v>
+      </c>
+      <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37706,12 +37362,12 @@
         <v>129430.9958624703</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>2716</v>
+      </c>
+      <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37745,12 +37401,12 @@
         <v>129430.9958624703</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>2714</v>
+      </c>
+      <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37784,12 +37440,12 @@
         <v>129430.9958624703</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>2714</v>
+      </c>
+      <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37823,12 +37479,12 @@
         <v>123543.9048624703</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>2714</v>
+      </c>
+      <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37862,12 +37518,12 @@
         <v>126521.0040624703</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>2709</v>
+      </c>
+      <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37901,12 +37557,12 @@
         <v>126508.2042624703</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>2724</v>
+      </c>
+      <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37940,12 +37596,12 @@
         <v>127133.5144624703</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>2713</v>
+      </c>
+      <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37979,12 +37635,12 @@
         <v>126385.3052624703</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>2719</v>
+      </c>
+      <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38018,12 +37674,12 @@
         <v>126385.3052624703</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>2715</v>
+      </c>
+      <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38057,12 +37713,12 @@
         <v>127340.7163624703</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>2715</v>
+      </c>
+      <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38096,12 +37752,12 @@
         <v>127115.7997624703</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="n">
-        <v>2610</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>2720</v>
+      </c>
+      <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38138,9 +37794,7 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38177,9 +37831,7 @@
         <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38216,9 +37868,7 @@
         <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38255,9 +37905,7 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38294,9 +37942,7 @@
         <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38333,9 +37979,7 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38372,9 +38016,7 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38411,9 +38053,7 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38450,9 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38489,9 +38127,7 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38528,9 +38164,7 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38567,9 +38201,7 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38606,9 +38238,7 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38645,9 +38275,7 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38684,9 +38312,7 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38723,9 +38349,7 @@
         <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38762,9 +38386,7 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38801,9 +38423,7 @@
         <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38840,9 +38460,7 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38879,9 +38497,7 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38918,9 +38534,7 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38957,9 +38571,7 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38996,9 +38608,7 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39035,9 +38645,7 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39074,9 +38682,7 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39113,9 +38719,7 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39152,9 +38756,7 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39191,9 +38793,7 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39230,9 +38830,7 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="n">
-        <v>2610</v>
-      </c>
+      <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39244,6 +38842,6 @@
       <c r="M1114" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-29 BackTest QTUM.xlsx
@@ -451,7 +451,7 @@
         <v>129189.5799703</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>134030.34424336</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>134030.34424336</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>133310.72894336</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>146364.01445817</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>159117.51237649</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>150155.88057649</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>168138.08113796</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>170685.37883796</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>194532.6206379599</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>206271.3183655899</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>199987.85014921</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>191841.52404921</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>198838.3363492099</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>193080.6950230199</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>208690.3005282999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>204386.8400821499</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>210761.0868855199</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>222736.4884695599</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>216584.7915123199</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>216823.9593123199</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>214562.0701123199</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>209990.9823123199</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>204947.1375123199</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>227610.0412123199</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>227610.0412123199</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>215428.0365123199</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>223705.8131399599</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>222398.1686399599</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>213275.8690399599</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>216618.1414183099</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>212414.8460183099</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>211838.8160183099</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>246536.0474456999</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>263517.2841111801</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>263480.60981118</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>265844.5966111801</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>265918.2831111801</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -26026,869 +26026,757 @@
         <v>163124.3824658902</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>2642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
+      <c r="K777" t="inlineStr"/>
+      <c r="L777" t="n">
+        <v>1</v>
+      </c>
+      <c r="M777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="n">
+        <v>2620</v>
+      </c>
+      <c r="C778" t="n">
+        <v>2608</v>
+      </c>
+      <c r="D778" t="n">
+        <v>2620</v>
+      </c>
+      <c r="E778" t="n">
+        <v>2608</v>
+      </c>
+      <c r="F778" t="n">
+        <v>8602.039699999999</v>
+      </c>
+      <c r="G778" t="n">
+        <v>154522.3427658902</v>
+      </c>
+      <c r="H778" t="n">
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
+      <c r="L778" t="n">
+        <v>1</v>
+      </c>
+      <c r="M778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="n">
+        <v>2608</v>
+      </c>
+      <c r="C779" t="n">
+        <v>2616</v>
+      </c>
+      <c r="D779" t="n">
+        <v>2616</v>
+      </c>
+      <c r="E779" t="n">
+        <v>2605</v>
+      </c>
+      <c r="F779" t="n">
+        <v>7785.7554</v>
+      </c>
+      <c r="G779" t="n">
+        <v>162308.0981658902</v>
+      </c>
+      <c r="H779" t="n">
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
+      <c r="L779" t="n">
+        <v>1</v>
+      </c>
+      <c r="M779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="n">
+        <v>2606</v>
+      </c>
+      <c r="C780" t="n">
+        <v>2606</v>
+      </c>
+      <c r="D780" t="n">
+        <v>2606</v>
+      </c>
+      <c r="E780" t="n">
+        <v>2606</v>
+      </c>
+      <c r="F780" t="n">
+        <v>20.6244</v>
+      </c>
+      <c r="G780" t="n">
+        <v>162287.4737658902</v>
+      </c>
+      <c r="H780" t="n">
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
+      <c r="L780" t="n">
+        <v>1</v>
+      </c>
+      <c r="M780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="n">
+        <v>2616</v>
+      </c>
+      <c r="C781" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D781" t="n">
+        <v>2616</v>
+      </c>
+      <c r="E781" t="n">
+        <v>2608</v>
+      </c>
+      <c r="F781" t="n">
+        <v>8206.3578</v>
+      </c>
+      <c r="G781" t="n">
+        <v>170493.8315658902</v>
+      </c>
+      <c r="H781" t="n">
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
+      <c r="L781" t="n">
+        <v>1</v>
+      </c>
+      <c r="M781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="n">
+        <v>2610</v>
+      </c>
+      <c r="C782" t="n">
+        <v>2602</v>
+      </c>
+      <c r="D782" t="n">
+        <v>2623</v>
+      </c>
+      <c r="E782" t="n">
+        <v>2602</v>
+      </c>
+      <c r="F782" t="n">
+        <v>9454.955400000001</v>
+      </c>
+      <c r="G782" t="n">
+        <v>161038.8761658902</v>
+      </c>
+      <c r="H782" t="n">
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
+      <c r="L782" t="n">
+        <v>1</v>
+      </c>
+      <c r="M782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="n">
+        <v>2619</v>
+      </c>
+      <c r="C783" t="n">
+        <v>2624</v>
+      </c>
+      <c r="D783" t="n">
+        <v>2625</v>
+      </c>
+      <c r="E783" t="n">
+        <v>2619</v>
+      </c>
+      <c r="F783" t="n">
+        <v>378.53052512</v>
+      </c>
+      <c r="G783" t="n">
+        <v>161417.4066910102</v>
+      </c>
+      <c r="H783" t="n">
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
+      <c r="L783" t="n">
+        <v>1</v>
+      </c>
+      <c r="M783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="n">
+        <v>2625</v>
+      </c>
+      <c r="C784" t="n">
+        <v>2615</v>
+      </c>
+      <c r="D784" t="n">
+        <v>2625</v>
+      </c>
+      <c r="E784" t="n">
+        <v>2615</v>
+      </c>
+      <c r="F784" t="n">
+        <v>3760.4576</v>
+      </c>
+      <c r="G784" t="n">
+        <v>157656.9490910102</v>
+      </c>
+      <c r="H784" t="n">
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
+      <c r="L784" t="n">
+        <v>1</v>
+      </c>
+      <c r="M784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="n">
+        <v>2612</v>
+      </c>
+      <c r="C785" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D785" t="n">
+        <v>2612</v>
+      </c>
+      <c r="E785" t="n">
+        <v>2610</v>
+      </c>
+      <c r="F785" t="n">
+        <v>2159.1377</v>
+      </c>
+      <c r="G785" t="n">
+        <v>155497.8113910102</v>
+      </c>
+      <c r="H785" t="n">
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
+      <c r="L785" t="n">
+        <v>1</v>
+      </c>
+      <c r="M785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="n">
+        <v>2615</v>
+      </c>
+      <c r="C786" t="n">
+        <v>2615</v>
+      </c>
+      <c r="D786" t="n">
+        <v>2616</v>
+      </c>
+      <c r="E786" t="n">
+        <v>2615</v>
+      </c>
+      <c r="F786" t="n">
+        <v>1853.7646</v>
+      </c>
+      <c r="G786" t="n">
+        <v>157351.5759910102</v>
+      </c>
+      <c r="H786" t="n">
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
+      <c r="L786" t="n">
+        <v>1</v>
+      </c>
+      <c r="M786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="n">
+        <v>2616</v>
+      </c>
+      <c r="C787" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D787" t="n">
+        <v>2616</v>
+      </c>
+      <c r="E787" t="n">
+        <v>2610</v>
+      </c>
+      <c r="F787" t="n">
+        <v>1508.4802</v>
+      </c>
+      <c r="G787" t="n">
+        <v>155843.0957910102</v>
+      </c>
+      <c r="H787" t="n">
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
+      <c r="L787" t="n">
+        <v>1</v>
+      </c>
+      <c r="M787" t="inlineStr"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="n">
+        <v>2610</v>
+      </c>
+      <c r="C788" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D788" t="n">
+        <v>2612</v>
+      </c>
+      <c r="E788" t="n">
+        <v>2610</v>
+      </c>
+      <c r="F788" t="n">
+        <v>510.2646</v>
+      </c>
+      <c r="G788" t="n">
+        <v>155843.0957910102</v>
+      </c>
+      <c r="H788" t="n">
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
+      <c r="L788" t="n">
+        <v>1</v>
+      </c>
+      <c r="M788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="n">
+        <v>2614</v>
+      </c>
+      <c r="C789" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D789" t="n">
+        <v>2615</v>
+      </c>
+      <c r="E789" t="n">
+        <v>2610</v>
+      </c>
+      <c r="F789" t="n">
+        <v>230.8758</v>
+      </c>
+      <c r="G789" t="n">
+        <v>155843.0957910102</v>
+      </c>
+      <c r="H789" t="n">
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
+      <c r="L789" t="n">
+        <v>1</v>
+      </c>
+      <c r="M789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="n">
+        <v>2610</v>
+      </c>
+      <c r="C790" t="n">
+        <v>2607</v>
+      </c>
+      <c r="D790" t="n">
+        <v>2610</v>
+      </c>
+      <c r="E790" t="n">
+        <v>2607</v>
+      </c>
+      <c r="F790" t="n">
+        <v>6402.5546</v>
+      </c>
+      <c r="G790" t="n">
+        <v>149440.5411910102</v>
+      </c>
+      <c r="H790" t="n">
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
+      <c r="L790" t="n">
+        <v>1</v>
+      </c>
+      <c r="M790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="n">
+        <v>2603</v>
+      </c>
+      <c r="C791" t="n">
+        <v>2615</v>
+      </c>
+      <c r="D791" t="n">
+        <v>2615</v>
+      </c>
+      <c r="E791" t="n">
+        <v>2602</v>
+      </c>
+      <c r="F791" t="n">
+        <v>230.44918267</v>
+      </c>
+      <c r="G791" t="n">
+        <v>149670.9903736802</v>
+      </c>
+      <c r="H791" t="n">
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
+      <c r="L791" t="n">
+        <v>1</v>
+      </c>
+      <c r="M791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="n">
+        <v>2609</v>
+      </c>
+      <c r="C792" t="n">
+        <v>2615</v>
+      </c>
+      <c r="D792" t="n">
+        <v>2615</v>
+      </c>
+      <c r="E792" t="n">
+        <v>2609</v>
+      </c>
+      <c r="F792" t="n">
+        <v>26.5994</v>
+      </c>
+      <c r="G792" t="n">
+        <v>149670.9903736802</v>
+      </c>
+      <c r="H792" t="n">
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
+      <c r="L792" t="n">
+        <v>1</v>
+      </c>
+      <c r="M792" t="inlineStr"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="n">
+        <v>2610</v>
+      </c>
+      <c r="C793" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D793" t="n">
+        <v>2610</v>
+      </c>
+      <c r="E793" t="n">
+        <v>2610</v>
+      </c>
+      <c r="F793" t="n">
+        <v>91.63160000000001</v>
+      </c>
+      <c r="G793" t="n">
+        <v>149579.3587736802</v>
+      </c>
+      <c r="H793" t="n">
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
+      <c r="L793" t="n">
+        <v>1</v>
+      </c>
+      <c r="M793" t="inlineStr"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="n">
+        <v>2614</v>
+      </c>
+      <c r="C794" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D794" t="n">
+        <v>2615</v>
+      </c>
+      <c r="E794" t="n">
+        <v>2610</v>
+      </c>
+      <c r="F794" t="n">
+        <v>1657.7069</v>
+      </c>
+      <c r="G794" t="n">
+        <v>149579.3587736802</v>
+      </c>
+      <c r="H794" t="n">
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
+      <c r="L794" t="n">
+        <v>1</v>
+      </c>
+      <c r="M794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="n">
+        <v>2610</v>
+      </c>
+      <c r="C795" t="n">
+        <v>2609</v>
+      </c>
+      <c r="D795" t="n">
+        <v>2610</v>
+      </c>
+      <c r="E795" t="n">
+        <v>2609</v>
+      </c>
+      <c r="F795" t="n">
+        <v>600.1522</v>
+      </c>
+      <c r="G795" t="n">
+        <v>148979.2065736802</v>
+      </c>
+      <c r="H795" t="n">
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
+      <c r="L795" t="n">
+        <v>1</v>
+      </c>
+      <c r="M795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="n">
+        <v>2609</v>
+      </c>
+      <c r="C796" t="n">
+        <v>2609</v>
+      </c>
+      <c r="D796" t="n">
+        <v>2609</v>
+      </c>
+      <c r="E796" t="n">
+        <v>2609</v>
+      </c>
+      <c r="F796" t="n">
+        <v>1294.4702</v>
+      </c>
+      <c r="G796" t="n">
+        <v>148979.2065736802</v>
+      </c>
+      <c r="H796" t="n">
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
+      <c r="L796" t="n">
+        <v>1</v>
+      </c>
+      <c r="M796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="n">
+        <v>2605</v>
+      </c>
+      <c r="C797" t="n">
+        <v>2605</v>
+      </c>
+      <c r="D797" t="n">
+        <v>2605</v>
+      </c>
+      <c r="E797" t="n">
+        <v>2605</v>
+      </c>
+      <c r="F797" t="n">
+        <v>145</v>
+      </c>
+      <c r="G797" t="n">
+        <v>148834.2065736802</v>
+      </c>
+      <c r="H797" t="n">
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>2609</v>
+      </c>
+      <c r="J797" t="n">
+        <v>2609</v>
+      </c>
+      <c r="K797" t="inlineStr"/>
+      <c r="L797" t="n">
+        <v>1</v>
+      </c>
+      <c r="M797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="n">
+        <v>2605</v>
+      </c>
+      <c r="C798" t="n">
+        <v>2605</v>
+      </c>
+      <c r="D798" t="n">
+        <v>2605</v>
+      </c>
+      <c r="E798" t="n">
+        <v>2605</v>
+      </c>
+      <c r="F798" t="n">
+        <v>1770.7384</v>
+      </c>
+      <c r="G798" t="n">
+        <v>148834.2065736802</v>
+      </c>
+      <c r="H798" t="n">
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>2605</v>
+      </c>
+      <c r="J798" t="n">
+        <v>2609</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L798" t="n">
+        <v>1</v>
+      </c>
+      <c r="M798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="n">
+        <v>2608</v>
+      </c>
+      <c r="C799" t="n">
+        <v>2609</v>
+      </c>
+      <c r="D799" t="n">
+        <v>2613</v>
+      </c>
+      <c r="E799" t="n">
+        <v>2608</v>
+      </c>
+      <c r="F799" t="n">
+        <v>1837.0871</v>
+      </c>
+      <c r="G799" t="n">
+        <v>150671.2936736802</v>
+      </c>
+      <c r="H799" t="n">
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>2605</v>
+      </c>
+      <c r="J799" t="n">
+        <v>2609</v>
+      </c>
+      <c r="K799" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L777" t="n">
-        <v>1</v>
-      </c>
-      <c r="M777" t="inlineStr"/>
-    </row>
-    <row r="778">
-      <c r="A778" s="1" t="n">
-        <v>776</v>
-      </c>
-      <c r="B778" t="n">
-        <v>2620</v>
-      </c>
-      <c r="C778" t="n">
-        <v>2608</v>
-      </c>
-      <c r="D778" t="n">
-        <v>2620</v>
-      </c>
-      <c r="E778" t="n">
-        <v>2608</v>
-      </c>
-      <c r="F778" t="n">
-        <v>8602.039699999999</v>
-      </c>
-      <c r="G778" t="n">
-        <v>154522.3427658902</v>
-      </c>
-      <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L778" t="n">
-        <v>1</v>
-      </c>
-      <c r="M778" t="inlineStr"/>
-    </row>
-    <row r="779">
-      <c r="A779" s="1" t="n">
-        <v>777</v>
-      </c>
-      <c r="B779" t="n">
-        <v>2608</v>
-      </c>
-      <c r="C779" t="n">
-        <v>2616</v>
-      </c>
-      <c r="D779" t="n">
-        <v>2616</v>
-      </c>
-      <c r="E779" t="n">
-        <v>2605</v>
-      </c>
-      <c r="F779" t="n">
-        <v>7785.7554</v>
-      </c>
-      <c r="G779" t="n">
-        <v>162308.0981658902</v>
-      </c>
-      <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L779" t="n">
-        <v>1</v>
-      </c>
-      <c r="M779" t="inlineStr"/>
-    </row>
-    <row r="780">
-      <c r="A780" s="1" t="n">
-        <v>778</v>
-      </c>
-      <c r="B780" t="n">
-        <v>2606</v>
-      </c>
-      <c r="C780" t="n">
-        <v>2606</v>
-      </c>
-      <c r="D780" t="n">
-        <v>2606</v>
-      </c>
-      <c r="E780" t="n">
-        <v>2606</v>
-      </c>
-      <c r="F780" t="n">
-        <v>20.6244</v>
-      </c>
-      <c r="G780" t="n">
-        <v>162287.4737658902</v>
-      </c>
-      <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>2616</v>
-      </c>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L780" t="n">
-        <v>1</v>
-      </c>
-      <c r="M780" t="inlineStr"/>
-    </row>
-    <row r="781">
-      <c r="A781" s="1" t="n">
-        <v>779</v>
-      </c>
-      <c r="B781" t="n">
-        <v>2616</v>
-      </c>
-      <c r="C781" t="n">
-        <v>2610</v>
-      </c>
-      <c r="D781" t="n">
-        <v>2616</v>
-      </c>
-      <c r="E781" t="n">
-        <v>2608</v>
-      </c>
-      <c r="F781" t="n">
-        <v>8206.3578</v>
-      </c>
-      <c r="G781" t="n">
-        <v>170493.8315658902</v>
-      </c>
-      <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>2606</v>
-      </c>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L781" t="n">
-        <v>1</v>
-      </c>
-      <c r="M781" t="inlineStr"/>
-    </row>
-    <row r="782">
-      <c r="A782" s="1" t="n">
-        <v>780</v>
-      </c>
-      <c r="B782" t="n">
-        <v>2610</v>
-      </c>
-      <c r="C782" t="n">
-        <v>2602</v>
-      </c>
-      <c r="D782" t="n">
-        <v>2623</v>
-      </c>
-      <c r="E782" t="n">
-        <v>2602</v>
-      </c>
-      <c r="F782" t="n">
-        <v>9454.955400000001</v>
-      </c>
-      <c r="G782" t="n">
-        <v>161038.8761658902</v>
-      </c>
-      <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>2610</v>
-      </c>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L782" t="n">
-        <v>1</v>
-      </c>
-      <c r="M782" t="inlineStr"/>
-    </row>
-    <row r="783">
-      <c r="A783" s="1" t="n">
-        <v>781</v>
-      </c>
-      <c r="B783" t="n">
-        <v>2619</v>
-      </c>
-      <c r="C783" t="n">
-        <v>2624</v>
-      </c>
-      <c r="D783" t="n">
-        <v>2625</v>
-      </c>
-      <c r="E783" t="n">
-        <v>2619</v>
-      </c>
-      <c r="F783" t="n">
-        <v>378.53052512</v>
-      </c>
-      <c r="G783" t="n">
-        <v>161417.4066910102</v>
-      </c>
-      <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L783" t="n">
-        <v>1</v>
-      </c>
-      <c r="M783" t="inlineStr"/>
-    </row>
-    <row r="784">
-      <c r="A784" s="1" t="n">
-        <v>782</v>
-      </c>
-      <c r="B784" t="n">
-        <v>2625</v>
-      </c>
-      <c r="C784" t="n">
-        <v>2615</v>
-      </c>
-      <c r="D784" t="n">
-        <v>2625</v>
-      </c>
-      <c r="E784" t="n">
-        <v>2615</v>
-      </c>
-      <c r="F784" t="n">
-        <v>3760.4576</v>
-      </c>
-      <c r="G784" t="n">
-        <v>157656.9490910102</v>
-      </c>
-      <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>2624</v>
-      </c>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L784" t="n">
-        <v>1</v>
-      </c>
-      <c r="M784" t="inlineStr"/>
-    </row>
-    <row r="785">
-      <c r="A785" s="1" t="n">
-        <v>783</v>
-      </c>
-      <c r="B785" t="n">
-        <v>2612</v>
-      </c>
-      <c r="C785" t="n">
-        <v>2610</v>
-      </c>
-      <c r="D785" t="n">
-        <v>2612</v>
-      </c>
-      <c r="E785" t="n">
-        <v>2610</v>
-      </c>
-      <c r="F785" t="n">
-        <v>2159.1377</v>
-      </c>
-      <c r="G785" t="n">
-        <v>155497.8113910102</v>
-      </c>
-      <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>2615</v>
-      </c>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L785" t="n">
-        <v>1</v>
-      </c>
-      <c r="M785" t="inlineStr"/>
-    </row>
-    <row r="786">
-      <c r="A786" s="1" t="n">
-        <v>784</v>
-      </c>
-      <c r="B786" t="n">
-        <v>2615</v>
-      </c>
-      <c r="C786" t="n">
-        <v>2615</v>
-      </c>
-      <c r="D786" t="n">
-        <v>2616</v>
-      </c>
-      <c r="E786" t="n">
-        <v>2615</v>
-      </c>
-      <c r="F786" t="n">
-        <v>1853.7646</v>
-      </c>
-      <c r="G786" t="n">
-        <v>157351.5759910102</v>
-      </c>
-      <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>2610</v>
-      </c>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L786" t="n">
-        <v>1</v>
-      </c>
-      <c r="M786" t="inlineStr"/>
-    </row>
-    <row r="787">
-      <c r="A787" s="1" t="n">
-        <v>785</v>
-      </c>
-      <c r="B787" t="n">
-        <v>2616</v>
-      </c>
-      <c r="C787" t="n">
-        <v>2610</v>
-      </c>
-      <c r="D787" t="n">
-        <v>2616</v>
-      </c>
-      <c r="E787" t="n">
-        <v>2610</v>
-      </c>
-      <c r="F787" t="n">
-        <v>1508.4802</v>
-      </c>
-      <c r="G787" t="n">
-        <v>155843.0957910102</v>
-      </c>
-      <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>2615</v>
-      </c>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L787" t="n">
-        <v>1</v>
-      </c>
-      <c r="M787" t="inlineStr"/>
-    </row>
-    <row r="788">
-      <c r="A788" s="1" t="n">
-        <v>786</v>
-      </c>
-      <c r="B788" t="n">
-        <v>2610</v>
-      </c>
-      <c r="C788" t="n">
-        <v>2610</v>
-      </c>
-      <c r="D788" t="n">
-        <v>2612</v>
-      </c>
-      <c r="E788" t="n">
-        <v>2610</v>
-      </c>
-      <c r="F788" t="n">
-        <v>510.2646</v>
-      </c>
-      <c r="G788" t="n">
-        <v>155843.0957910102</v>
-      </c>
-      <c r="H788" t="n">
-        <v>1</v>
-      </c>
-      <c r="I788" t="n">
-        <v>2610</v>
-      </c>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L788" t="n">
-        <v>1</v>
-      </c>
-      <c r="M788" t="inlineStr"/>
-    </row>
-    <row r="789">
-      <c r="A789" s="1" t="n">
-        <v>787</v>
-      </c>
-      <c r="B789" t="n">
-        <v>2614</v>
-      </c>
-      <c r="C789" t="n">
-        <v>2610</v>
-      </c>
-      <c r="D789" t="n">
-        <v>2615</v>
-      </c>
-      <c r="E789" t="n">
-        <v>2610</v>
-      </c>
-      <c r="F789" t="n">
-        <v>230.8758</v>
-      </c>
-      <c r="G789" t="n">
-        <v>155843.0957910102</v>
-      </c>
-      <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>2610</v>
-      </c>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L789" t="n">
-        <v>1</v>
-      </c>
-      <c r="M789" t="inlineStr"/>
-    </row>
-    <row r="790">
-      <c r="A790" s="1" t="n">
-        <v>788</v>
-      </c>
-      <c r="B790" t="n">
-        <v>2610</v>
-      </c>
-      <c r="C790" t="n">
-        <v>2607</v>
-      </c>
-      <c r="D790" t="n">
-        <v>2610</v>
-      </c>
-      <c r="E790" t="n">
-        <v>2607</v>
-      </c>
-      <c r="F790" t="n">
-        <v>6402.5546</v>
-      </c>
-      <c r="G790" t="n">
-        <v>149440.5411910102</v>
-      </c>
-      <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>2610</v>
-      </c>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L790" t="n">
-        <v>1</v>
-      </c>
-      <c r="M790" t="inlineStr"/>
-    </row>
-    <row r="791">
-      <c r="A791" s="1" t="n">
-        <v>789</v>
-      </c>
-      <c r="B791" t="n">
-        <v>2603</v>
-      </c>
-      <c r="C791" t="n">
-        <v>2615</v>
-      </c>
-      <c r="D791" t="n">
-        <v>2615</v>
-      </c>
-      <c r="E791" t="n">
-        <v>2602</v>
-      </c>
-      <c r="F791" t="n">
-        <v>230.44918267</v>
-      </c>
-      <c r="G791" t="n">
-        <v>149670.9903736802</v>
-      </c>
-      <c r="H791" t="n">
-        <v>1</v>
-      </c>
-      <c r="I791" t="n">
-        <v>2607</v>
-      </c>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L791" t="n">
-        <v>1</v>
-      </c>
-      <c r="M791" t="inlineStr"/>
-    </row>
-    <row r="792">
-      <c r="A792" s="1" t="n">
-        <v>790</v>
-      </c>
-      <c r="B792" t="n">
-        <v>2609</v>
-      </c>
-      <c r="C792" t="n">
-        <v>2615</v>
-      </c>
-      <c r="D792" t="n">
-        <v>2615</v>
-      </c>
-      <c r="E792" t="n">
-        <v>2609</v>
-      </c>
-      <c r="F792" t="n">
-        <v>26.5994</v>
-      </c>
-      <c r="G792" t="n">
-        <v>149670.9903736802</v>
-      </c>
-      <c r="H792" t="n">
-        <v>1</v>
-      </c>
-      <c r="I792" t="n">
-        <v>2615</v>
-      </c>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L792" t="n">
-        <v>1</v>
-      </c>
-      <c r="M792" t="inlineStr"/>
-    </row>
-    <row r="793">
-      <c r="A793" s="1" t="n">
-        <v>791</v>
-      </c>
-      <c r="B793" t="n">
-        <v>2610</v>
-      </c>
-      <c r="C793" t="n">
-        <v>2610</v>
-      </c>
-      <c r="D793" t="n">
-        <v>2610</v>
-      </c>
-      <c r="E793" t="n">
-        <v>2610</v>
-      </c>
-      <c r="F793" t="n">
-        <v>91.63160000000001</v>
-      </c>
-      <c r="G793" t="n">
-        <v>149579.3587736802</v>
-      </c>
-      <c r="H793" t="n">
-        <v>1</v>
-      </c>
-      <c r="I793" t="n">
-        <v>2615</v>
-      </c>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L793" t="n">
-        <v>1</v>
-      </c>
-      <c r="M793" t="inlineStr"/>
-    </row>
-    <row r="794">
-      <c r="A794" s="1" t="n">
-        <v>792</v>
-      </c>
-      <c r="B794" t="n">
-        <v>2614</v>
-      </c>
-      <c r="C794" t="n">
-        <v>2610</v>
-      </c>
-      <c r="D794" t="n">
-        <v>2615</v>
-      </c>
-      <c r="E794" t="n">
-        <v>2610</v>
-      </c>
-      <c r="F794" t="n">
-        <v>1657.7069</v>
-      </c>
-      <c r="G794" t="n">
-        <v>149579.3587736802</v>
-      </c>
-      <c r="H794" t="n">
-        <v>1</v>
-      </c>
-      <c r="I794" t="n">
-        <v>2610</v>
-      </c>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L794" t="n">
-        <v>1</v>
-      </c>
-      <c r="M794" t="inlineStr"/>
-    </row>
-    <row r="795">
-      <c r="A795" s="1" t="n">
-        <v>793</v>
-      </c>
-      <c r="B795" t="n">
-        <v>2610</v>
-      </c>
-      <c r="C795" t="n">
-        <v>2609</v>
-      </c>
-      <c r="D795" t="n">
-        <v>2610</v>
-      </c>
-      <c r="E795" t="n">
-        <v>2609</v>
-      </c>
-      <c r="F795" t="n">
-        <v>600.1522</v>
-      </c>
-      <c r="G795" t="n">
-        <v>148979.2065736802</v>
-      </c>
-      <c r="H795" t="n">
-        <v>1</v>
-      </c>
-      <c r="I795" t="n">
-        <v>2610</v>
-      </c>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L795" t="n">
-        <v>1</v>
-      </c>
-      <c r="M795" t="inlineStr"/>
-    </row>
-    <row r="796">
-      <c r="A796" s="1" t="n">
-        <v>794</v>
-      </c>
-      <c r="B796" t="n">
-        <v>2609</v>
-      </c>
-      <c r="C796" t="n">
-        <v>2609</v>
-      </c>
-      <c r="D796" t="n">
-        <v>2609</v>
-      </c>
-      <c r="E796" t="n">
-        <v>2609</v>
-      </c>
-      <c r="F796" t="n">
-        <v>1294.4702</v>
-      </c>
-      <c r="G796" t="n">
-        <v>148979.2065736802</v>
-      </c>
-      <c r="H796" t="n">
-        <v>1</v>
-      </c>
-      <c r="I796" t="n">
-        <v>2609</v>
-      </c>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L796" t="n">
-        <v>1</v>
-      </c>
-      <c r="M796" t="inlineStr"/>
-    </row>
-    <row r="797">
-      <c r="A797" s="1" t="n">
-        <v>795</v>
-      </c>
-      <c r="B797" t="n">
-        <v>2605</v>
-      </c>
-      <c r="C797" t="n">
-        <v>2605</v>
-      </c>
-      <c r="D797" t="n">
-        <v>2605</v>
-      </c>
-      <c r="E797" t="n">
-        <v>2605</v>
-      </c>
-      <c r="F797" t="n">
-        <v>145</v>
-      </c>
-      <c r="G797" t="n">
-        <v>148834.2065736802</v>
-      </c>
-      <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>2609</v>
-      </c>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L797" t="n">
-        <v>1</v>
-      </c>
-      <c r="M797" t="inlineStr"/>
-    </row>
-    <row r="798">
-      <c r="A798" s="1" t="n">
-        <v>796</v>
-      </c>
-      <c r="B798" t="n">
-        <v>2605</v>
-      </c>
-      <c r="C798" t="n">
-        <v>2605</v>
-      </c>
-      <c r="D798" t="n">
-        <v>2605</v>
-      </c>
-      <c r="E798" t="n">
-        <v>2605</v>
-      </c>
-      <c r="F798" t="n">
-        <v>1770.7384</v>
-      </c>
-      <c r="G798" t="n">
-        <v>148834.2065736802</v>
-      </c>
-      <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>2605</v>
-      </c>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L798" t="n">
-        <v>1</v>
-      </c>
-      <c r="M798" t="inlineStr"/>
-    </row>
-    <row r="799">
-      <c r="A799" s="1" t="n">
-        <v>797</v>
-      </c>
-      <c r="B799" t="n">
-        <v>2608</v>
-      </c>
-      <c r="C799" t="n">
-        <v>2609</v>
-      </c>
-      <c r="D799" t="n">
-        <v>2613</v>
-      </c>
-      <c r="E799" t="n">
-        <v>2608</v>
-      </c>
-      <c r="F799" t="n">
-        <v>1837.0871</v>
-      </c>
-      <c r="G799" t="n">
-        <v>150671.2936736802</v>
-      </c>
-      <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>2605</v>
-      </c>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26922,7 +26810,9 @@
       <c r="I800" t="n">
         <v>2609</v>
       </c>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>2609</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26961,7 +26851,9 @@
       <c r="I801" t="n">
         <v>2609</v>
       </c>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>2609</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27000,7 +26892,9 @@
       <c r="I802" t="n">
         <v>2617</v>
       </c>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>2609</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27039,7 +26933,9 @@
       <c r="I803" t="n">
         <v>2606</v>
       </c>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>2609</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27078,7 +26974,9 @@
       <c r="I804" t="n">
         <v>2606</v>
       </c>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>2609</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27117,7 +27015,9 @@
       <c r="I805" t="n">
         <v>2622</v>
       </c>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>2609</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27156,7 +27056,9 @@
       <c r="I806" t="n">
         <v>2614</v>
       </c>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>2609</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27195,7 +27097,9 @@
       <c r="I807" t="n">
         <v>2611</v>
       </c>
-      <c r="J807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>2609</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27234,7 +27138,9 @@
       <c r="I808" t="n">
         <v>2613</v>
       </c>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>2609</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27273,7 +27179,9 @@
       <c r="I809" t="n">
         <v>2620</v>
       </c>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>2609</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27312,7 +27220,9 @@
       <c r="I810" t="n">
         <v>2609</v>
       </c>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>2609</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27351,7 +27261,9 @@
       <c r="I811" t="n">
         <v>2622</v>
       </c>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>2609</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27390,7 +27302,9 @@
       <c r="I812" t="n">
         <v>2626</v>
       </c>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>2609</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27429,7 +27343,9 @@
       <c r="I813" t="n">
         <v>2626</v>
       </c>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>2609</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27468,7 +27384,9 @@
       <c r="I814" t="n">
         <v>2629</v>
       </c>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>2609</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27507,7 +27425,9 @@
       <c r="I815" t="n">
         <v>2621</v>
       </c>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>2609</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27546,7 +27466,9 @@
       <c r="I816" t="n">
         <v>2641</v>
       </c>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>2609</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27585,7 +27507,9 @@
       <c r="I817" t="n">
         <v>2641</v>
       </c>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>2609</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27624,7 +27548,9 @@
       <c r="I818" t="n">
         <v>2627</v>
       </c>
-      <c r="J818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>2609</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27663,7 +27589,9 @@
       <c r="I819" t="n">
         <v>2636</v>
       </c>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>2609</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27702,7 +27630,9 @@
       <c r="I820" t="n">
         <v>2644</v>
       </c>
-      <c r="J820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>2609</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27741,7 +27671,9 @@
       <c r="I821" t="n">
         <v>2640</v>
       </c>
-      <c r="J821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>2609</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27780,7 +27712,9 @@
       <c r="I822" t="n">
         <v>2634</v>
       </c>
-      <c r="J822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>2609</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27819,7 +27753,9 @@
       <c r="I823" t="n">
         <v>2640</v>
       </c>
-      <c r="J823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>2609</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27858,7 +27794,9 @@
       <c r="I824" t="n">
         <v>2651</v>
       </c>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>2609</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27897,7 +27835,9 @@
       <c r="I825" t="n">
         <v>2654</v>
       </c>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>2609</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27936,7 +27876,9 @@
       <c r="I826" t="n">
         <v>2653</v>
       </c>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>2609</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27970,10 +27912,14 @@
         <v>164586.8004701303</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>2660</v>
+      </c>
+      <c r="J827" t="n">
+        <v>2609</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28012,7 +27958,9 @@
       <c r="I828" t="n">
         <v>2660</v>
       </c>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>2609</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28046,10 +27994,14 @@
         <v>163065.0645701303</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>2648</v>
+      </c>
+      <c r="J829" t="n">
+        <v>2609</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28088,7 +28040,9 @@
       <c r="I830" t="n">
         <v>2639</v>
       </c>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>2609</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28127,7 +28081,9 @@
       <c r="I831" t="n">
         <v>2650</v>
       </c>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>2609</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28166,7 +28122,9 @@
       <c r="I832" t="n">
         <v>2650</v>
       </c>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>2609</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28205,7 +28163,9 @@
       <c r="I833" t="n">
         <v>2655</v>
       </c>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>2609</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28244,7 +28204,9 @@
       <c r="I834" t="n">
         <v>2660</v>
       </c>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>2609</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28283,7 +28245,9 @@
       <c r="I835" t="n">
         <v>2668</v>
       </c>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>2609</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28322,7 +28286,9 @@
       <c r="I836" t="n">
         <v>2673</v>
       </c>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>2609</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28361,7 +28327,9 @@
       <c r="I837" t="n">
         <v>2673</v>
       </c>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>2609</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28400,7 +28368,9 @@
       <c r="I838" t="n">
         <v>2660</v>
       </c>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>2609</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28434,10 +28404,14 @@
         <v>167091.8060701303</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>2672</v>
+      </c>
+      <c r="J839" t="n">
+        <v>2609</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28471,12 +28445,12 @@
         <v>167572.8092701303</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>2662</v>
-      </c>
-      <c r="J840" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>2609</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28510,12 +28484,12 @@
         <v>168818.5082701303</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>2663</v>
-      </c>
-      <c r="J841" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>2609</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28549,12 +28523,12 @@
         <v>169826.2788701302</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>2664</v>
-      </c>
-      <c r="J842" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>2609</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28588,12 +28562,12 @@
         <v>170417.9251471203</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>2674</v>
-      </c>
-      <c r="J843" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>2609</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28627,12 +28601,12 @@
         <v>164242.5294471203</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>2679</v>
-      </c>
-      <c r="J844" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>2609</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28669,7 +28643,9 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>2609</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28706,7 +28682,9 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>2609</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28743,7 +28721,9 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>2609</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28780,7 +28760,9 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>2609</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28817,7 +28799,9 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>2609</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28854,7 +28838,9 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>2609</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28891,7 +28877,9 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>2609</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28928,7 +28916,9 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>2609</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28965,7 +28955,9 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>2609</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29002,7 +28994,9 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>2609</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29039,7 +29033,9 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>2609</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29076,7 +29072,9 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>2609</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29113,7 +29111,9 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>2609</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29150,7 +29150,9 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>2609</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29187,7 +29189,9 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>2609</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29224,7 +29228,9 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>2609</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29258,12 +29264,12 @@
         <v>141376.2357471203</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>2652</v>
-      </c>
-      <c r="J861" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>2609</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29297,12 +29303,12 @@
         <v>141376.2357471203</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>2650</v>
-      </c>
-      <c r="J862" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>2609</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29336,12 +29342,12 @@
         <v>141376.2357471203</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
-      </c>
-      <c r="I863" t="n">
-        <v>2650</v>
-      </c>
-      <c r="J863" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>2609</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29375,12 +29381,12 @@
         <v>141282.3041471203</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
-      </c>
-      <c r="I864" t="n">
-        <v>2650</v>
-      </c>
-      <c r="J864" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>2609</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29414,12 +29420,12 @@
         <v>140079.4884471203</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>2647</v>
-      </c>
-      <c r="J865" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>2609</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29453,12 +29459,12 @@
         <v>137617.5730471203</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>2639</v>
-      </c>
-      <c r="J866" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>2609</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29492,12 +29498,12 @@
         <v>138946.2585471203</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
-      </c>
-      <c r="I867" t="n">
-        <v>2624</v>
-      </c>
-      <c r="J867" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>2609</v>
+      </c>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29531,12 +29537,12 @@
         <v>136092.0845471203</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>2634</v>
-      </c>
-      <c r="J868" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>2609</v>
+      </c>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29570,12 +29576,12 @@
         <v>136167.0227471203</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>2632</v>
-      </c>
-      <c r="J869" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>2609</v>
+      </c>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29609,12 +29615,12 @@
         <v>138029.6440471203</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>2638</v>
-      </c>
-      <c r="J870" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>2609</v>
+      </c>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29648,12 +29654,12 @@
         <v>137167.3629471203</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>2647</v>
-      </c>
-      <c r="J871" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>2609</v>
+      </c>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29687,12 +29693,12 @@
         <v>138240.0136471203</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
-      </c>
-      <c r="I872" t="n">
-        <v>2644</v>
-      </c>
-      <c r="J872" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>2609</v>
+      </c>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29726,12 +29732,12 @@
         <v>138216.2231471203</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>2645</v>
-      </c>
-      <c r="J873" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>2609</v>
+      </c>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29765,12 +29771,12 @@
         <v>138239.9592471203</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
-      </c>
-      <c r="I874" t="n">
-        <v>2637</v>
-      </c>
-      <c r="J874" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>2609</v>
+      </c>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29804,12 +29810,12 @@
         <v>138216.9738471203</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
-      </c>
-      <c r="I875" t="n">
-        <v>2638</v>
-      </c>
-      <c r="J875" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>2609</v>
+      </c>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29843,12 +29849,12 @@
         <v>138216.9738471203</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
-      </c>
-      <c r="I876" t="n">
-        <v>2637</v>
-      </c>
-      <c r="J876" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>2609</v>
+      </c>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29882,12 +29888,12 @@
         <v>138100.1230471203</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
-      </c>
-      <c r="I877" t="n">
-        <v>2637</v>
-      </c>
-      <c r="J877" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>2609</v>
+      </c>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29921,12 +29927,12 @@
         <v>136992.1152471203</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
-      </c>
-      <c r="I878" t="n">
-        <v>2636</v>
-      </c>
-      <c r="J878" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>2609</v>
+      </c>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29960,12 +29966,12 @@
         <v>137536.9928471203</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
-      </c>
-      <c r="I879" t="n">
-        <v>2629</v>
-      </c>
-      <c r="J879" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>2609</v>
+      </c>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29999,12 +30005,12 @@
         <v>137536.9928471203</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
-      </c>
-      <c r="I880" t="n">
-        <v>2636</v>
-      </c>
-      <c r="J880" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>2609</v>
+      </c>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30038,12 +30044,12 @@
         <v>139551.6173471203</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
-      </c>
-      <c r="I881" t="n">
-        <v>2636</v>
-      </c>
-      <c r="J881" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>2609</v>
+      </c>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30077,12 +30083,12 @@
         <v>139618.8659471203</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
-      </c>
-      <c r="I882" t="n">
-        <v>2637</v>
-      </c>
-      <c r="J882" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>2609</v>
+      </c>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30116,12 +30122,12 @@
         <v>138060.7013471203</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
-        <v>2648</v>
-      </c>
-      <c r="J883" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>2609</v>
+      </c>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30155,12 +30161,12 @@
         <v>137983.9911471203</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
-      </c>
-      <c r="I884" t="n">
-        <v>2647</v>
-      </c>
-      <c r="J884" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>2609</v>
+      </c>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30194,12 +30200,12 @@
         <v>137953.1620471203</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>2645</v>
-      </c>
-      <c r="J885" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>2609</v>
+      </c>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30233,12 +30239,12 @@
         <v>137681.0378471203</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>2644</v>
-      </c>
-      <c r="J886" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>2609</v>
+      </c>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30272,12 +30278,12 @@
         <v>137681.0378471203</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
-      </c>
-      <c r="I887" t="n">
-        <v>2637</v>
-      </c>
-      <c r="J887" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>2609</v>
+      </c>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30311,12 +30317,12 @@
         <v>137679.5715471203</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>2637</v>
-      </c>
-      <c r="J888" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>2609</v>
+      </c>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30350,12 +30356,12 @@
         <v>135297.4935471203</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
-      </c>
-      <c r="I889" t="n">
-        <v>2633</v>
-      </c>
-      <c r="J889" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>2609</v>
+      </c>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30389,12 +30395,12 @@
         <v>135313.4935471203</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>2623</v>
-      </c>
-      <c r="J890" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>2609</v>
+      </c>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30428,12 +30434,12 @@
         <v>134995.3583471203</v>
       </c>
       <c r="H891" t="n">
-        <v>1</v>
-      </c>
-      <c r="I891" t="n">
-        <v>2655</v>
-      </c>
-      <c r="J891" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>2609</v>
+      </c>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30467,12 +30473,12 @@
         <v>134929.8164471203</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>2653</v>
-      </c>
-      <c r="J892" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>2609</v>
+      </c>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30506,12 +30512,12 @@
         <v>135028.6984471203</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>2648</v>
-      </c>
-      <c r="J893" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>2609</v>
+      </c>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30545,12 +30551,12 @@
         <v>135270.5920471203</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>2667</v>
-      </c>
-      <c r="J894" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>2609</v>
+      </c>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30584,12 +30590,12 @@
         <v>134691.4602471203</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>2669</v>
-      </c>
-      <c r="J895" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>2609</v>
+      </c>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30623,12 +30629,12 @@
         <v>134914.3139471203</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>2665</v>
-      </c>
-      <c r="J896" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>2609</v>
+      </c>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30662,12 +30668,12 @@
         <v>134914.4139471203</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>2670</v>
-      </c>
-      <c r="J897" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>2609</v>
+      </c>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30701,12 +30707,12 @@
         <v>134817.5701471203</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>2677</v>
-      </c>
-      <c r="J898" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>2609</v>
+      </c>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30740,12 +30746,12 @@
         <v>135234.2009471203</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>2670</v>
-      </c>
-      <c r="J899" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>2609</v>
+      </c>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30779,12 +30785,12 @@
         <v>141836.6763471203</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>2677</v>
-      </c>
-      <c r="J900" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>2609</v>
+      </c>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30818,12 +30824,12 @@
         <v>139898.6750471203</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>2681</v>
-      </c>
-      <c r="J901" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>2609</v>
+      </c>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30857,12 +30863,12 @@
         <v>140927.1505471203</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>2676</v>
-      </c>
-      <c r="J902" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>2609</v>
+      </c>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30896,12 +30902,12 @@
         <v>141842.0938471204</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>2684</v>
-      </c>
-      <c r="J903" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>2609</v>
+      </c>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30935,12 +30941,12 @@
         <v>144273.4290471204</v>
       </c>
       <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>2685</v>
-      </c>
-      <c r="J904" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>2609</v>
+      </c>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30974,12 +30980,12 @@
         <v>143829.1158471204</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>2690</v>
-      </c>
-      <c r="J905" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>2609</v>
+      </c>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31013,12 +31019,12 @@
         <v>143906.0672471203</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
-      </c>
-      <c r="I906" t="n">
-        <v>2689</v>
-      </c>
-      <c r="J906" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>2609</v>
+      </c>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31052,12 +31058,12 @@
         <v>143906.0672471203</v>
       </c>
       <c r="H907" t="n">
-        <v>1</v>
-      </c>
-      <c r="I907" t="n">
-        <v>2690</v>
-      </c>
-      <c r="J907" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>2609</v>
+      </c>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31091,12 +31097,12 @@
         <v>145461.0940471203</v>
       </c>
       <c r="H908" t="n">
-        <v>1</v>
-      </c>
-      <c r="I908" t="n">
-        <v>2690</v>
-      </c>
-      <c r="J908" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>2609</v>
+      </c>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31130,12 +31136,12 @@
         <v>145912.2190471203</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
-      </c>
-      <c r="I909" t="n">
-        <v>2710</v>
-      </c>
-      <c r="J909" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>2609</v>
+      </c>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31169,12 +31175,12 @@
         <v>145869.6024471203</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
-      </c>
-      <c r="I910" t="n">
-        <v>2713</v>
-      </c>
-      <c r="J910" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>2609</v>
+      </c>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31208,12 +31214,12 @@
         <v>146029.6024471203</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
-      </c>
-      <c r="I911" t="n">
-        <v>2700</v>
-      </c>
-      <c r="J911" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>2609</v>
+      </c>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31247,12 +31253,12 @@
         <v>145931.8024471203</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
-      </c>
-      <c r="I912" t="n">
-        <v>2709</v>
-      </c>
-      <c r="J912" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>2609</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31286,12 +31292,12 @@
         <v>147548.5289471203</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
-      </c>
-      <c r="I913" t="n">
-        <v>2707</v>
-      </c>
-      <c r="J913" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>2609</v>
+      </c>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31328,7 +31334,9 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>2609</v>
+      </c>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31365,7 +31373,9 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>2609</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31402,7 +31412,9 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>2609</v>
+      </c>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31439,7 +31451,9 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>2609</v>
+      </c>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31473,12 +31487,12 @@
         <v>146582.3576471203</v>
       </c>
       <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>2679</v>
-      </c>
-      <c r="J918" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>2609</v>
+      </c>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31512,12 +31526,12 @@
         <v>147919.4919471203</v>
       </c>
       <c r="H919" t="n">
-        <v>1</v>
-      </c>
-      <c r="I919" t="n">
-        <v>2680</v>
-      </c>
-      <c r="J919" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>2609</v>
+      </c>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31551,12 +31565,12 @@
         <v>147481.6370471203</v>
       </c>
       <c r="H920" t="n">
-        <v>1</v>
-      </c>
-      <c r="I920" t="n">
-        <v>2683</v>
-      </c>
-      <c r="J920" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>2609</v>
+      </c>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31590,12 +31604,12 @@
         <v>147756.2034471204</v>
       </c>
       <c r="H921" t="n">
-        <v>1</v>
-      </c>
-      <c r="I921" t="n">
-        <v>2674</v>
-      </c>
-      <c r="J921" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>2609</v>
+      </c>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31629,12 +31643,12 @@
         <v>147497.2240471203</v>
       </c>
       <c r="H922" t="n">
-        <v>1</v>
-      </c>
-      <c r="I922" t="n">
-        <v>2675</v>
-      </c>
-      <c r="J922" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>2609</v>
+      </c>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31668,12 +31682,12 @@
         <v>147497.2240471203</v>
       </c>
       <c r="H923" t="n">
-        <v>1</v>
-      </c>
-      <c r="I923" t="n">
-        <v>2672</v>
-      </c>
-      <c r="J923" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>2609</v>
+      </c>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31707,12 +31721,12 @@
         <v>147123.4994471204</v>
       </c>
       <c r="H924" t="n">
-        <v>1</v>
-      </c>
-      <c r="I924" t="n">
-        <v>2672</v>
-      </c>
-      <c r="J924" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>2609</v>
+      </c>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31746,12 +31760,12 @@
         <v>147164.6175471203</v>
       </c>
       <c r="H925" t="n">
-        <v>1</v>
-      </c>
-      <c r="I925" t="n">
-        <v>2671</v>
-      </c>
-      <c r="J925" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>2609</v>
+      </c>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31785,12 +31799,12 @@
         <v>146966.5215471204</v>
       </c>
       <c r="H926" t="n">
-        <v>1</v>
-      </c>
-      <c r="I926" t="n">
-        <v>2672</v>
-      </c>
-      <c r="J926" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>2609</v>
+      </c>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31824,12 +31838,12 @@
         <v>147123.0339471204</v>
       </c>
       <c r="H927" t="n">
-        <v>1</v>
-      </c>
-      <c r="I927" t="n">
-        <v>2671</v>
-      </c>
-      <c r="J927" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>2609</v>
+      </c>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31863,12 +31877,12 @@
         <v>147123.0339471204</v>
       </c>
       <c r="H928" t="n">
-        <v>1</v>
-      </c>
-      <c r="I928" t="n">
-        <v>2672</v>
-      </c>
-      <c r="J928" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>2609</v>
+      </c>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31902,12 +31916,12 @@
         <v>146172.1569471204</v>
       </c>
       <c r="H929" t="n">
-        <v>1</v>
-      </c>
-      <c r="I929" t="n">
-        <v>2672</v>
-      </c>
-      <c r="J929" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>2609</v>
+      </c>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31941,12 +31955,12 @@
         <v>146472.1569471204</v>
       </c>
       <c r="H930" t="n">
-        <v>1</v>
-      </c>
-      <c r="I930" t="n">
-        <v>2671</v>
-      </c>
-      <c r="J930" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>2609</v>
+      </c>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31980,12 +31994,12 @@
         <v>146330.3570471203</v>
       </c>
       <c r="H931" t="n">
-        <v>1</v>
-      </c>
-      <c r="I931" t="n">
-        <v>2672</v>
-      </c>
-      <c r="J931" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>2609</v>
+      </c>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32019,12 +32033,12 @@
         <v>146330.3570471203</v>
       </c>
       <c r="H932" t="n">
-        <v>1</v>
-      </c>
-      <c r="I932" t="n">
-        <v>2671</v>
-      </c>
-      <c r="J932" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>2609</v>
+      </c>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32058,12 +32072,12 @@
         <v>147858.7657471203</v>
       </c>
       <c r="H933" t="n">
-        <v>1</v>
-      </c>
-      <c r="I933" t="n">
-        <v>2671</v>
-      </c>
-      <c r="J933" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>2609</v>
+      </c>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32097,12 +32111,12 @@
         <v>148068.9557471203</v>
       </c>
       <c r="H934" t="n">
-        <v>1</v>
-      </c>
-      <c r="I934" t="n">
-        <v>2677</v>
-      </c>
-      <c r="J934" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>2609</v>
+      </c>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32136,12 +32150,12 @@
         <v>148068.9557471203</v>
       </c>
       <c r="H935" t="n">
-        <v>1</v>
-      </c>
-      <c r="I935" t="n">
-        <v>2683</v>
-      </c>
-      <c r="J935" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>2609</v>
+      </c>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32175,12 +32189,12 @@
         <v>148993.9936471203</v>
       </c>
       <c r="H936" t="n">
-        <v>1</v>
-      </c>
-      <c r="I936" t="n">
-        <v>2683</v>
-      </c>
-      <c r="J936" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>2609</v>
+      </c>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32214,12 +32228,12 @@
         <v>149325.0955471203</v>
       </c>
       <c r="H937" t="n">
-        <v>1</v>
-      </c>
-      <c r="I937" t="n">
-        <v>2684</v>
-      </c>
-      <c r="J937" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>2609</v>
+      </c>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32253,12 +32267,12 @@
         <v>150172.6135471204</v>
       </c>
       <c r="H938" t="n">
-        <v>1</v>
-      </c>
-      <c r="I938" t="n">
-        <v>2692</v>
-      </c>
-      <c r="J938" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>2609</v>
+      </c>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32295,7 +32309,9 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>2609</v>
+      </c>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32332,7 +32348,9 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>2609</v>
+      </c>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32369,7 +32387,9 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>2609</v>
+      </c>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32406,7 +32426,9 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>2609</v>
+      </c>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32443,7 +32465,9 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>2609</v>
+      </c>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32480,7 +32504,9 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>2609</v>
+      </c>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32517,7 +32543,9 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>2609</v>
+      </c>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32554,7 +32582,9 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>2609</v>
+      </c>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32591,7 +32621,9 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>2609</v>
+      </c>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32628,7 +32660,9 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>2609</v>
+      </c>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32665,7 +32699,9 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>2609</v>
+      </c>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32702,7 +32738,9 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>2609</v>
+      </c>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32739,7 +32777,9 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>2609</v>
+      </c>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32776,7 +32816,9 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>2609</v>
+      </c>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32813,7 +32855,9 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>2609</v>
+      </c>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32850,7 +32894,9 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>2609</v>
+      </c>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32887,7 +32933,9 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>2609</v>
+      </c>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32924,7 +32972,9 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>2609</v>
+      </c>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32961,7 +33011,9 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>2609</v>
+      </c>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32998,7 +33050,9 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>2609</v>
+      </c>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33035,7 +33089,9 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>2609</v>
+      </c>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33072,7 +33128,9 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>2609</v>
+      </c>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33109,7 +33167,9 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>2609</v>
+      </c>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33146,7 +33206,9 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>2609</v>
+      </c>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33183,7 +33245,9 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>2609</v>
+      </c>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33220,7 +33284,9 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>2609</v>
+      </c>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33257,7 +33323,9 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>2609</v>
+      </c>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33291,12 +33359,12 @@
         <v>129558.8339471203</v>
       </c>
       <c r="H966" t="n">
-        <v>1</v>
-      </c>
-      <c r="I966" t="n">
-        <v>2683</v>
-      </c>
-      <c r="J966" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>2609</v>
+      </c>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33333,7 +33401,9 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>2609</v>
+      </c>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33370,7 +33440,9 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>2609</v>
+      </c>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33407,7 +33479,9 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>2609</v>
+      </c>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33444,7 +33518,9 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>2609</v>
+      </c>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33481,7 +33557,9 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>2609</v>
+      </c>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33518,7 +33596,9 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>2609</v>
+      </c>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33555,7 +33635,9 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>2609</v>
+      </c>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33592,7 +33674,9 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>2609</v>
+      </c>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33629,7 +33713,9 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>2609</v>
+      </c>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33666,7 +33752,9 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>2609</v>
+      </c>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33703,7 +33791,9 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>2609</v>
+      </c>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33740,7 +33830,9 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>2609</v>
+      </c>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33777,7 +33869,9 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>2609</v>
+      </c>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33814,7 +33908,9 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>2609</v>
+      </c>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33851,7 +33947,9 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>2609</v>
+      </c>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33888,7 +33986,9 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>2609</v>
+      </c>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33925,7 +34025,9 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>2609</v>
+      </c>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33962,7 +34064,9 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>2609</v>
+      </c>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33999,7 +34103,9 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>2609</v>
+      </c>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34036,7 +34142,9 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>2609</v>
+      </c>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34073,7 +34181,9 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>2609</v>
+      </c>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34110,7 +34220,9 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>2609</v>
+      </c>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34147,7 +34259,9 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>2609</v>
+      </c>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34184,7 +34298,9 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>2609</v>
+      </c>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34221,7 +34337,9 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>2609</v>
+      </c>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34258,7 +34376,9 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>2609</v>
+      </c>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34295,7 +34415,9 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
+      <c r="J993" t="n">
+        <v>2609</v>
+      </c>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34332,7 +34454,9 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
+      <c r="J994" t="n">
+        <v>2609</v>
+      </c>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34369,7 +34493,9 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
+      <c r="J995" t="n">
+        <v>2609</v>
+      </c>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34406,7 +34532,9 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
+      <c r="J996" t="n">
+        <v>2609</v>
+      </c>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34443,7 +34571,9 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
+      <c r="J997" t="n">
+        <v>2609</v>
+      </c>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34480,7 +34610,9 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
+      <c r="J998" t="n">
+        <v>2609</v>
+      </c>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34517,7 +34649,9 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
+      <c r="J999" t="n">
+        <v>2609</v>
+      </c>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34554,7 +34688,9 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
+      <c r="J1000" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34591,7 +34727,9 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
+      <c r="J1001" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34628,7 +34766,9 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
+      <c r="J1002" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34662,12 +34802,12 @@
         <v>132283.7627471203</v>
       </c>
       <c r="H1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1003" t="n">
-        <v>2680</v>
-      </c>
-      <c r="J1003" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr"/>
+      <c r="J1003" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34701,12 +34841,12 @@
         <v>131991.0689471203</v>
       </c>
       <c r="H1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1004" t="n">
-        <v>2692</v>
-      </c>
-      <c r="J1004" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1004" t="inlineStr"/>
+      <c r="J1004" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34740,12 +34880,12 @@
         <v>132192.2993471203</v>
       </c>
       <c r="H1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1005" t="n">
-        <v>2691</v>
-      </c>
-      <c r="J1005" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
+      <c r="J1005" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34779,12 +34919,12 @@
         <v>133192.1166471203</v>
       </c>
       <c r="H1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1006" t="n">
-        <v>2700</v>
-      </c>
-      <c r="J1006" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr"/>
+      <c r="J1006" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34821,7 +34961,9 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
+      <c r="J1007" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34858,7 +35000,9 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
+      <c r="J1008" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34895,7 +35039,9 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
+      <c r="J1009" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34932,7 +35078,9 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
+      <c r="J1010" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34969,7 +35117,9 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
+      <c r="J1011" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35006,7 +35156,9 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
+      <c r="J1012" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35043,7 +35195,9 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
+      <c r="J1013" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35080,7 +35234,9 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
+      <c r="J1014" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35117,7 +35273,9 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
+      <c r="J1015" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35154,7 +35312,9 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
+      <c r="J1016" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35191,7 +35351,9 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
+      <c r="J1017" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35228,7 +35390,9 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
+      <c r="J1018" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35265,7 +35429,9 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
+      <c r="J1019" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35302,7 +35468,9 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
+      <c r="J1020" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35339,7 +35507,9 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
+      <c r="J1021" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35376,7 +35546,9 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
+      <c r="J1022" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35413,7 +35585,9 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
+      <c r="J1023" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35450,7 +35624,9 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
+      <c r="J1024" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35487,7 +35663,9 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
+      <c r="J1025" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35524,7 +35702,9 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
+      <c r="J1026" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35561,7 +35741,9 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
+      <c r="J1027" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35598,7 +35780,9 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
+      <c r="J1028" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35635,7 +35819,9 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
+      <c r="J1029" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35672,7 +35858,9 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
+      <c r="J1030" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1030" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35709,7 +35897,9 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
+      <c r="J1031" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1031" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35746,7 +35936,9 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
+      <c r="J1032" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1032" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35783,7 +35975,9 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
+      <c r="J1033" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1033" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35820,7 +36014,9 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
+      <c r="J1034" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1034" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35857,7 +36053,9 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
+      <c r="J1035" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1035" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35894,7 +36092,9 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
+      <c r="J1036" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1036" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35931,7 +36131,9 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
+      <c r="J1037" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1037" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35968,7 +36170,9 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
+      <c r="J1038" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1038" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36005,7 +36209,9 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
+      <c r="J1039" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1039" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36042,7 +36248,9 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
+      <c r="J1040" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1040" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36079,7 +36287,9 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
+      <c r="J1041" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36116,7 +36326,9 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
+      <c r="J1042" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36153,7 +36365,9 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
+      <c r="J1043" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1043" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36190,7 +36404,9 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
+      <c r="J1044" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1044" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36227,7 +36443,9 @@
         <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
+      <c r="J1045" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1045" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36264,7 +36482,9 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
+      <c r="J1046" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1046" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36301,7 +36521,9 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
+      <c r="J1047" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36338,7 +36560,9 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
+      <c r="J1048" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36375,7 +36599,9 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
+      <c r="J1049" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36412,7 +36638,9 @@
         <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
+      <c r="J1050" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36449,7 +36677,9 @@
         <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
+      <c r="J1051" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36486,7 +36716,9 @@
         <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
+      <c r="J1052" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36523,7 +36755,9 @@
         <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
+      <c r="J1053" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36560,7 +36794,9 @@
         <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
+      <c r="J1054" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36597,7 +36833,9 @@
         <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
+      <c r="J1055" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36634,7 +36872,9 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
+      <c r="J1056" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36671,7 +36911,9 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="inlineStr"/>
+      <c r="J1057" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36708,7 +36950,9 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="inlineStr"/>
+      <c r="J1058" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36745,7 +36989,9 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="inlineStr"/>
+      <c r="J1059" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36782,7 +37028,9 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
+      <c r="J1060" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36816,12 +37064,12 @@
         <v>131519.7758388903</v>
       </c>
       <c r="H1061" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1061" t="n">
-        <v>2708</v>
-      </c>
-      <c r="J1061" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1061" t="inlineStr"/>
+      <c r="J1061" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36855,12 +37103,12 @@
         <v>131206.2564384503</v>
       </c>
       <c r="H1062" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1062" t="n">
-        <v>2708</v>
-      </c>
-      <c r="J1062" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1062" t="inlineStr"/>
+      <c r="J1062" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36894,12 +37142,12 @@
         <v>131445.1871384503</v>
       </c>
       <c r="H1063" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1063" t="n">
-        <v>2707</v>
-      </c>
-      <c r="J1063" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1063" t="inlineStr"/>
+      <c r="J1063" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36933,12 +37181,12 @@
         <v>128212.6253384503</v>
       </c>
       <c r="H1064" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1064" t="n">
-        <v>2708</v>
-      </c>
-      <c r="J1064" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1064" t="inlineStr"/>
+      <c r="J1064" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36972,12 +37220,12 @@
         <v>125250.2305384503</v>
       </c>
       <c r="H1065" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1065" t="n">
-        <v>2706</v>
-      </c>
-      <c r="J1065" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1065" t="inlineStr"/>
+      <c r="J1065" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37011,12 +37259,12 @@
         <v>125582.7196384503</v>
       </c>
       <c r="H1066" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1066" t="n">
-        <v>2703</v>
-      </c>
-      <c r="J1066" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1066" t="inlineStr"/>
+      <c r="J1066" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37050,12 +37298,12 @@
         <v>126211.7318384503</v>
       </c>
       <c r="H1067" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1067" t="n">
-        <v>2709</v>
-      </c>
-      <c r="J1067" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1067" t="inlineStr"/>
+      <c r="J1067" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37089,12 +37337,12 @@
         <v>125279.4683384503</v>
       </c>
       <c r="H1068" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1068" t="n">
-        <v>2714</v>
-      </c>
-      <c r="J1068" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1068" t="inlineStr"/>
+      <c r="J1068" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37128,12 +37376,12 @@
         <v>125245.6518384503</v>
       </c>
       <c r="H1069" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1069" t="n">
-        <v>2713</v>
-      </c>
-      <c r="J1069" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1069" t="inlineStr"/>
+      <c r="J1069" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37167,12 +37415,12 @@
         <v>127842.6620384503</v>
       </c>
       <c r="H1070" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1070" t="n">
-        <v>2712</v>
-      </c>
-      <c r="J1070" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1070" t="inlineStr"/>
+      <c r="J1070" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37206,12 +37454,12 @@
         <v>128998.4524384503</v>
       </c>
       <c r="H1071" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1071" t="n">
-        <v>2713</v>
-      </c>
-      <c r="J1071" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1071" t="inlineStr"/>
+      <c r="J1071" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37245,12 +37493,12 @@
         <v>131056.5927624703</v>
       </c>
       <c r="H1072" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1072" t="n">
-        <v>2714</v>
-      </c>
-      <c r="J1072" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1072" t="inlineStr"/>
+      <c r="J1072" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37284,12 +37532,12 @@
         <v>128549.7084624703</v>
       </c>
       <c r="H1073" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1073" t="n">
-        <v>2722</v>
-      </c>
-      <c r="J1073" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1073" t="inlineStr"/>
+      <c r="J1073" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37323,12 +37571,12 @@
         <v>129481.9528624703</v>
       </c>
       <c r="H1074" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1074" t="n">
-        <v>2714</v>
-      </c>
-      <c r="J1074" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1074" t="inlineStr"/>
+      <c r="J1074" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37362,12 +37610,12 @@
         <v>129430.9958624703</v>
       </c>
       <c r="H1075" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1075" t="n">
-        <v>2716</v>
-      </c>
-      <c r="J1075" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1075" t="inlineStr"/>
+      <c r="J1075" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37401,12 +37649,12 @@
         <v>129430.9958624703</v>
       </c>
       <c r="H1076" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1076" t="n">
-        <v>2714</v>
-      </c>
-      <c r="J1076" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1076" t="inlineStr"/>
+      <c r="J1076" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37440,12 +37688,12 @@
         <v>129430.9958624703</v>
       </c>
       <c r="H1077" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1077" t="n">
-        <v>2714</v>
-      </c>
-      <c r="J1077" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1077" t="inlineStr"/>
+      <c r="J1077" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37479,12 +37727,12 @@
         <v>123543.9048624703</v>
       </c>
       <c r="H1078" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1078" t="n">
-        <v>2714</v>
-      </c>
-      <c r="J1078" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1078" t="inlineStr"/>
+      <c r="J1078" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37518,12 +37766,12 @@
         <v>126521.0040624703</v>
       </c>
       <c r="H1079" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1079" t="n">
-        <v>2709</v>
-      </c>
-      <c r="J1079" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1079" t="inlineStr"/>
+      <c r="J1079" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37557,12 +37805,12 @@
         <v>126508.2042624703</v>
       </c>
       <c r="H1080" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1080" t="n">
-        <v>2724</v>
-      </c>
-      <c r="J1080" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1080" t="inlineStr"/>
+      <c r="J1080" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37596,12 +37844,12 @@
         <v>127133.5144624703</v>
       </c>
       <c r="H1081" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1081" t="n">
-        <v>2713</v>
-      </c>
-      <c r="J1081" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1081" t="inlineStr"/>
+      <c r="J1081" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37635,12 +37883,12 @@
         <v>126385.3052624703</v>
       </c>
       <c r="H1082" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1082" t="n">
-        <v>2719</v>
-      </c>
-      <c r="J1082" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1082" t="inlineStr"/>
+      <c r="J1082" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37674,12 +37922,12 @@
         <v>126385.3052624703</v>
       </c>
       <c r="H1083" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1083" t="n">
-        <v>2715</v>
-      </c>
-      <c r="J1083" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1083" t="inlineStr"/>
+      <c r="J1083" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37713,12 +37961,12 @@
         <v>127340.7163624703</v>
       </c>
       <c r="H1084" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1084" t="n">
-        <v>2715</v>
-      </c>
-      <c r="J1084" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1084" t="inlineStr"/>
+      <c r="J1084" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37752,12 +38000,12 @@
         <v>127115.7997624703</v>
       </c>
       <c r="H1085" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1085" t="n">
-        <v>2720</v>
-      </c>
-      <c r="J1085" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1085" t="inlineStr"/>
+      <c r="J1085" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37794,7 +38042,9 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="inlineStr"/>
+      <c r="J1086" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37831,7 +38081,9 @@
         <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="inlineStr"/>
+      <c r="J1087" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37868,7 +38120,9 @@
         <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="inlineStr"/>
+      <c r="J1088" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37905,7 +38159,9 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="inlineStr"/>
+      <c r="J1089" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37942,7 +38198,9 @@
         <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="inlineStr"/>
+      <c r="J1090" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37979,7 +38237,9 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="inlineStr"/>
+      <c r="J1091" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38016,7 +38276,9 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="inlineStr"/>
+      <c r="J1092" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38053,7 +38315,9 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="inlineStr"/>
+      <c r="J1093" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38090,7 +38354,9 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="inlineStr"/>
+      <c r="J1094" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38127,7 +38393,9 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="inlineStr"/>
+      <c r="J1095" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38164,7 +38432,9 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="inlineStr"/>
+      <c r="J1096" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38201,7 +38471,9 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="inlineStr"/>
+      <c r="J1097" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38238,7 +38510,9 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="inlineStr"/>
+      <c r="J1098" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38275,7 +38549,9 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="inlineStr"/>
+      <c r="J1099" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38312,7 +38588,9 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="inlineStr"/>
+      <c r="J1100" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38349,7 +38627,9 @@
         <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="inlineStr"/>
+      <c r="J1101" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38386,7 +38666,9 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="inlineStr"/>
+      <c r="J1102" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38423,7 +38705,9 @@
         <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="inlineStr"/>
+      <c r="J1103" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38460,7 +38744,9 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="inlineStr"/>
+      <c r="J1104" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38497,7 +38783,9 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="inlineStr"/>
+      <c r="J1105" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38534,7 +38822,9 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="inlineStr"/>
+      <c r="J1106" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38571,7 +38861,9 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="inlineStr"/>
+      <c r="J1107" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38608,7 +38900,9 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="inlineStr"/>
+      <c r="J1108" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38645,7 +38939,9 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="inlineStr"/>
+      <c r="J1109" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38682,7 +38978,9 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="inlineStr"/>
+      <c r="J1110" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38719,7 +39017,9 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="inlineStr"/>
+      <c r="J1111" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38756,7 +39056,9 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="inlineStr"/>
+      <c r="J1112" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38793,7 +39095,9 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="inlineStr"/>
+      <c r="J1113" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38830,7 +39134,9 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="inlineStr"/>
+      <c r="J1114" t="n">
+        <v>2609</v>
+      </c>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
